--- a/recorded_trajectories_v2/run1/claude-4-sonnet-0514/finalpool/SingleUserTurn-excel-data-transformation/workspace/Processed.xlsx
+++ b/recorded_trajectories_v2/run1/claude-4-sonnet-0514/finalpool/SingleUserTurn-excel-data-transformation/workspace/Processed.xlsx
@@ -34,208 +34,208 @@
     <t>Accumulated Growth (%)</t>
   </si>
   <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2020-02</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
+    <t>2020-04</t>
+  </si>
+  <si>
+    <t>2020-05</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>2020-07</t>
+  </si>
+  <si>
+    <t>2020-08</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2021-02</t>
+  </si>
+  <si>
+    <t>2021-03</t>
+  </si>
+  <si>
+    <t>2021-04</t>
+  </si>
+  <si>
+    <t>2021-05</t>
+  </si>
+  <si>
+    <t>2021-06</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>2021-08</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
+    <t>2022-08</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2022-10</t>
+  </si>
+  <si>
+    <t>2022-11</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>2023-03</t>
+  </si>
+  <si>
+    <t>2023-04</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
+    <t>2023-06</t>
+  </si>
+  <si>
+    <t>2023-07</t>
+  </si>
+  <si>
+    <t>2023-08</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
+    <t>2023-10</t>
+  </si>
+  <si>
+    <t>2023-11</t>
+  </si>
+  <si>
+    <t>2023-12</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
+  <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
     <t>2024-12</t>
   </si>
   <si>
-    <t>2024-11</t>
-  </si>
-  <si>
-    <t>2024-10</t>
-  </si>
-  <si>
-    <t>2024-09</t>
-  </si>
-  <si>
-    <t>2024-08</t>
-  </si>
-  <si>
-    <t>2024-07</t>
-  </si>
-  <si>
-    <t>2024-06</t>
-  </si>
-  <si>
-    <t>2024-05</t>
-  </si>
-  <si>
-    <t>2024-04</t>
-  </si>
-  <si>
-    <t>2024-03</t>
-  </si>
-  <si>
-    <t>2024-02</t>
-  </si>
-  <si>
-    <t>2023-12</t>
-  </si>
-  <si>
-    <t>2023-11</t>
-  </si>
-  <si>
-    <t>2023-10</t>
-  </si>
-  <si>
-    <t>2023-09</t>
-  </si>
-  <si>
-    <t>2023-08</t>
-  </si>
-  <si>
-    <t>2023-07</t>
-  </si>
-  <si>
-    <t>2023-06</t>
-  </si>
-  <si>
-    <t>2023-05</t>
-  </si>
-  <si>
-    <t>2023-04</t>
-  </si>
-  <si>
-    <t>2023-03</t>
-  </si>
-  <si>
-    <t>2023-02</t>
-  </si>
-  <si>
-    <t>2022-12</t>
-  </si>
-  <si>
-    <t>2022-11</t>
-  </si>
-  <si>
-    <t>2022-10</t>
-  </si>
-  <si>
-    <t>2022-09</t>
-  </si>
-  <si>
-    <t>2022-08</t>
-  </si>
-  <si>
-    <t>2022-07</t>
-  </si>
-  <si>
-    <t>2022-06</t>
-  </si>
-  <si>
-    <t>2022-05</t>
-  </si>
-  <si>
-    <t>2022-04</t>
-  </si>
-  <si>
-    <t>2022-03</t>
-  </si>
-  <si>
-    <t>2022-02</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>Household Refrigerator</t>
-  </si>
-  <si>
-    <t>Air Conditioner</t>
+    <t>Air Conditioners</t>
+  </si>
+  <si>
+    <t>Household Refrigerators</t>
   </si>
   <si>
     <t>Household Washing Machines</t>
@@ -629,17 +629,14 @@
       <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C2">
-        <v>899.1</v>
-      </c>
       <c r="D2">
-        <v>10395.7</v>
+        <v>2788.5</v>
       </c>
       <c r="E2">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.083</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -649,17 +646,14 @@
       <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C3">
-        <v>2369.5</v>
-      </c>
       <c r="D3">
-        <v>26598.4</v>
+        <v>1099</v>
       </c>
       <c r="E3">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.09699999999999999</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -669,17 +663,14 @@
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4">
-        <v>1226.5</v>
-      </c>
       <c r="D4">
-        <v>11736.5</v>
+        <v>1085.9</v>
       </c>
       <c r="E4">
-        <v>0.279</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.08800000000000001</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -690,16 +681,16 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>860.9</v>
+        <v>2406.9</v>
       </c>
       <c r="D5">
-        <v>9588.5</v>
+        <v>5199</v>
       </c>
       <c r="E5">
-        <v>0.026</v>
+        <v>22.3</v>
       </c>
       <c r="F5">
-        <v>0.081</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -710,16 +701,16 @@
         <v>73</v>
       </c>
       <c r="C6">
-        <v>1967.9</v>
+        <v>735.7</v>
       </c>
       <c r="D6">
-        <v>24237.4</v>
+        <v>1836.8</v>
       </c>
       <c r="E6">
-        <v>0.27</v>
+        <v>1.9</v>
       </c>
       <c r="F6">
-        <v>0.094</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -730,16 +721,16 @@
         <v>74</v>
       </c>
       <c r="C7">
-        <v>1112.7</v>
+        <v>661.1</v>
       </c>
       <c r="D7">
-        <v>10458.2</v>
+        <v>1746.2</v>
       </c>
       <c r="E7">
-        <v>0.042</v>
+        <v>5.5</v>
       </c>
       <c r="F7">
-        <v>0.063</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,16 +741,16 @@
         <v>72</v>
       </c>
       <c r="C8">
-        <v>897.1</v>
+        <v>2363.6</v>
       </c>
       <c r="D8">
-        <v>8727.6</v>
+        <v>7546.5</v>
       </c>
       <c r="E8">
-        <v>0.068</v>
+        <v>15.4</v>
       </c>
       <c r="F8">
-        <v>0.08500000000000001</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -770,16 +761,16 @@
         <v>73</v>
       </c>
       <c r="C9">
-        <v>1620.2</v>
+        <v>771.2</v>
       </c>
       <c r="D9">
-        <v>22480.9</v>
+        <v>2615</v>
       </c>
       <c r="E9">
-        <v>0.14</v>
+        <v>2.1</v>
       </c>
       <c r="F9">
-        <v>0.08199999999999999</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,16 +781,16 @@
         <v>74</v>
       </c>
       <c r="C10">
-        <v>1102.8</v>
+        <v>646.8</v>
       </c>
       <c r="D10">
-        <v>9345.5</v>
+        <v>2395.9</v>
       </c>
       <c r="E10">
-        <v>0.063</v>
+        <v>9.4</v>
       </c>
       <c r="F10">
-        <v>0.067</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,16 +801,16 @@
         <v>72</v>
       </c>
       <c r="C11">
-        <v>962.9</v>
+        <v>2191.2</v>
       </c>
       <c r="D11">
-        <v>7742.1</v>
+        <v>9745.9</v>
       </c>
       <c r="E11">
-        <v>0.09</v>
+        <v>6.4</v>
       </c>
       <c r="F11">
-        <v>0.075</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -830,16 +821,16 @@
         <v>73</v>
       </c>
       <c r="C12">
-        <v>1884.1</v>
+        <v>777.8</v>
       </c>
       <c r="D12">
-        <v>21028.6</v>
+        <v>3461.2</v>
       </c>
       <c r="E12">
-        <v>0.107</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <v>0.08</v>
+        <v>3.700000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -850,16 +841,16 @@
         <v>74</v>
       </c>
       <c r="C13">
-        <v>1097</v>
+        <v>680.6</v>
       </c>
       <c r="D13">
-        <v>8242.700000000001</v>
+        <v>3073.6</v>
       </c>
       <c r="E13">
-        <v>0.031</v>
+        <v>19.8</v>
       </c>
       <c r="F13">
-        <v>0.067</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -870,16 +861,16 @@
         <v>72</v>
       </c>
       <c r="C14">
-        <v>897.7</v>
+        <v>2133.1</v>
       </c>
       <c r="D14">
-        <v>6781.6</v>
+        <v>11978.8</v>
       </c>
       <c r="E14">
-        <v>0.047</v>
+        <v>2.4</v>
       </c>
       <c r="F14">
-        <v>0.073</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -890,16 +881,16 @@
         <v>73</v>
       </c>
       <c r="C15">
-        <v>1498</v>
+        <v>746.1</v>
       </c>
       <c r="D15">
-        <v>19139.1</v>
+        <v>4250.4</v>
       </c>
       <c r="E15">
-        <v>-0.094</v>
+        <v>2.8</v>
       </c>
       <c r="F15">
-        <v>0.078</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -910,16 +901,16 @@
         <v>74</v>
       </c>
       <c r="C16">
-        <v>1011.2</v>
+        <v>650.2</v>
       </c>
       <c r="D16">
-        <v>7145.9</v>
+        <v>3732.5</v>
       </c>
       <c r="E16">
-        <v>0.07000000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="F16">
-        <v>0.07200000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,16 +921,16 @@
         <v>72</v>
       </c>
       <c r="C17">
-        <v>830.4</v>
+        <v>1686.1</v>
       </c>
       <c r="D17">
-        <v>5861</v>
+        <v>13853.1</v>
       </c>
       <c r="E17">
-        <v>-0.03</v>
+        <v>-3</v>
       </c>
       <c r="F17">
-        <v>0.073</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,16 +941,16 @@
         <v>73</v>
       </c>
       <c r="C18">
-        <v>2020.1</v>
+        <v>734.2</v>
       </c>
       <c r="D18">
-        <v>17661.3</v>
+        <v>5043.4</v>
       </c>
       <c r="E18">
-        <v>-0.129</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>0.095</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,16 +961,16 @@
         <v>74</v>
       </c>
       <c r="C19">
-        <v>845.6</v>
+        <v>491.5</v>
       </c>
       <c r="D19">
-        <v>6142.9</v>
+        <v>4243.7</v>
       </c>
       <c r="E19">
-        <v>0.138</v>
+        <v>-7.3</v>
       </c>
       <c r="F19">
-        <v>0.079</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,16 +981,16 @@
         <v>72</v>
       </c>
       <c r="C20">
-        <v>871.8</v>
+        <v>1433.2</v>
       </c>
       <c r="D20">
-        <v>5051</v>
+        <v>15239.5</v>
       </c>
       <c r="E20">
-        <v>0.001</v>
+        <v>-2.9</v>
       </c>
       <c r="F20">
-        <v>0.09699999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,16 +1001,16 @@
         <v>73</v>
       </c>
       <c r="C21">
-        <v>2805.3</v>
+        <v>701.7</v>
       </c>
       <c r="D21">
-        <v>15705.6</v>
+        <v>5736.5</v>
       </c>
       <c r="E21">
-        <v>0.057</v>
+        <v>-5.2</v>
       </c>
       <c r="F21">
-        <v>0.138</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,16 +1021,16 @@
         <v>74</v>
       </c>
       <c r="C22">
-        <v>815.7</v>
+        <v>678.2</v>
       </c>
       <c r="D22">
-        <v>5311.6</v>
+        <v>4917</v>
       </c>
       <c r="E22">
-        <v>-0.036</v>
+        <v>4.9</v>
       </c>
       <c r="F22">
-        <v>0.068</v>
+        <v>6.800000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,16 +1041,16 @@
         <v>72</v>
       </c>
       <c r="C23">
-        <v>893.2</v>
+        <v>1783.9</v>
       </c>
       <c r="D23">
-        <v>4179.1</v>
+        <v>17005.4</v>
       </c>
       <c r="E23">
-        <v>0.052</v>
+        <v>10.6</v>
       </c>
       <c r="F23">
-        <v>0.121</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,16 +1061,16 @@
         <v>73</v>
       </c>
       <c r="C24">
-        <v>2905</v>
+        <v>736.7</v>
       </c>
       <c r="D24">
-        <v>12880.7</v>
+        <v>6427.3</v>
       </c>
       <c r="E24">
-        <v>0.129</v>
+        <v>3.9</v>
       </c>
       <c r="F24">
-        <v>0.167</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,16 +1081,16 @@
         <v>74</v>
       </c>
       <c r="C25">
-        <v>927.4</v>
+        <v>720.5</v>
       </c>
       <c r="D25">
-        <v>4495.4</v>
+        <v>5637.5</v>
       </c>
       <c r="E25">
-        <v>0.042</v>
+        <v>7.6</v>
       </c>
       <c r="F25">
-        <v>0.094</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,16 +1101,16 @@
         <v>72</v>
       </c>
       <c r="C26">
-        <v>933.6</v>
+        <v>1332.2</v>
       </c>
       <c r="D26">
-        <v>3285.9</v>
+        <v>18331.7</v>
       </c>
       <c r="E26">
-        <v>0.154</v>
+        <v>-2.1</v>
       </c>
       <c r="F26">
-        <v>0.141</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,16 +1121,16 @@
         <v>73</v>
       </c>
       <c r="C27">
-        <v>3033.1</v>
+        <v>704.6</v>
       </c>
       <c r="D27">
-        <v>9914</v>
+        <v>7110.9</v>
       </c>
       <c r="E27">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.176</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,16 +1141,16 @@
         <v>74</v>
       </c>
       <c r="C28">
-        <v>944.3</v>
+        <v>761.5</v>
       </c>
       <c r="D28">
-        <v>3546.2</v>
+        <v>6341.5</v>
       </c>
       <c r="E28">
-        <v>0.023</v>
+        <v>13.5</v>
       </c>
       <c r="F28">
-        <v>0.103</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,16 +1161,16 @@
         <v>72</v>
       </c>
       <c r="C29">
-        <v>993.4</v>
+        <v>1545.5</v>
       </c>
       <c r="D29">
-        <v>2362.1</v>
+        <v>19956.1</v>
       </c>
       <c r="E29">
-        <v>0.132</v>
+        <v>1.2</v>
       </c>
       <c r="F29">
-        <v>0.128</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,16 +1181,16 @@
         <v>73</v>
       </c>
       <c r="C30">
-        <v>3083.3</v>
+        <v>722.2</v>
       </c>
       <c r="D30">
-        <v>6878</v>
+        <v>7657.4</v>
       </c>
       <c r="E30">
-        <v>0.132</v>
+        <v>7.7</v>
       </c>
       <c r="F30">
-        <v>0.165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,16 +1201,16 @@
         <v>74</v>
       </c>
       <c r="C31">
-        <v>932.4</v>
+        <v>720.9</v>
       </c>
       <c r="D31">
-        <v>2559.9</v>
+        <v>6710</v>
       </c>
       <c r="E31">
-        <v>0.059</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>0.138</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1229,14 +1220,17 @@
       <c r="B32" t="s">
         <v>72</v>
       </c>
+      <c r="C32">
+        <v>2034.9</v>
+      </c>
       <c r="D32">
-        <v>1374.4</v>
+        <v>21866.2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F32">
-        <v>0.128</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1246,14 +1240,17 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
+      <c r="C33">
+        <v>690.2</v>
+      </c>
       <c r="D33">
-        <v>3763.6</v>
+        <v>7904.3</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="F33">
-        <v>0.188</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1263,14 +1260,17 @@
       <c r="B34" t="s">
         <v>74</v>
       </c>
+      <c r="C34">
+        <v>726.5</v>
+      </c>
       <c r="D34">
-        <v>1622.5</v>
+        <v>7433</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F34">
-        <v>0.185</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1280,17 +1280,14 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35">
-        <v>817.3</v>
-      </c>
       <c r="D35">
-        <v>9632.299999999999</v>
+        <v>1628.5</v>
       </c>
       <c r="E35">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.145</v>
+        <v>-40.2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1300,17 +1297,14 @@
       <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36">
-        <v>2152.9</v>
-      </c>
       <c r="D36">
-        <v>24487</v>
+        <v>667</v>
       </c>
       <c r="E36">
-        <v>0.269</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.135</v>
+        <v>-37.4</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1320,17 +1314,14 @@
       <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C37">
-        <v>923.4</v>
-      </c>
       <c r="D37">
-        <v>10458.3</v>
+        <v>775.7</v>
       </c>
       <c r="E37">
-        <v>0.119</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.193</v>
+        <v>-20.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1341,16 +1332,16 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>828.6</v>
+        <v>1940.3</v>
       </c>
       <c r="D38">
-        <v>8815.4</v>
+        <v>3688.1</v>
       </c>
       <c r="E38">
-        <v>0.204</v>
+        <v>-18.8</v>
       </c>
       <c r="F38">
-        <v>0.145</v>
+        <v>-27.9</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1361,16 +1352,16 @@
         <v>73</v>
       </c>
       <c r="C39">
-        <v>1595.7</v>
+        <v>726.6</v>
       </c>
       <c r="D39">
-        <v>22334.1</v>
+        <v>1373.1</v>
       </c>
       <c r="E39">
-        <v>0.128</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>0.126</v>
+        <v>-19.8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1381,16 +1372,16 @@
         <v>74</v>
       </c>
       <c r="C40">
-        <v>1025.3</v>
+        <v>640</v>
       </c>
       <c r="D40">
-        <v>9535.799999999999</v>
+        <v>1416.2</v>
       </c>
       <c r="E40">
-        <v>0.134</v>
+        <v>0.5</v>
       </c>
       <c r="F40">
-        <v>0.2</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1401,16 +1392,16 @@
         <v>72</v>
       </c>
       <c r="C41">
-        <v>827.2</v>
+        <v>1915.9</v>
       </c>
       <c r="D41">
-        <v>7996.8</v>
+        <v>5581.5</v>
       </c>
       <c r="E41">
-        <v>0.203</v>
+        <v>-17.3</v>
       </c>
       <c r="F41">
-        <v>0.141</v>
+        <v>-24.8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1421,16 +1412,16 @@
         <v>73</v>
       </c>
       <c r="C42">
-        <v>1373</v>
+        <v>701.5</v>
       </c>
       <c r="D42">
-        <v>20738.5</v>
+        <v>2053.3</v>
       </c>
       <c r="E42">
-        <v>-0.005</v>
+        <v>-3.3</v>
       </c>
       <c r="F42">
-        <v>0.124</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1441,16 +1432,16 @@
         <v>74</v>
       </c>
       <c r="C43">
-        <v>1005.7</v>
+        <v>555.7</v>
       </c>
       <c r="D43">
-        <v>8500.5</v>
+        <v>1979.9</v>
       </c>
       <c r="E43">
-        <v>0.145</v>
+        <v>-10</v>
       </c>
       <c r="F43">
-        <v>0.207</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1461,16 +1452,16 @@
         <v>72</v>
       </c>
       <c r="C44">
-        <v>885.1</v>
+        <v>1942.8</v>
       </c>
       <c r="D44">
-        <v>7182.4</v>
+        <v>7798.8</v>
       </c>
       <c r="E44">
-        <v>0.132</v>
+        <v>-14.7</v>
       </c>
       <c r="F44">
-        <v>0.136</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1481,16 +1472,16 @@
         <v>73</v>
       </c>
       <c r="C45">
-        <v>1611.4</v>
+        <v>776.7</v>
       </c>
       <c r="D45">
-        <v>19366.2</v>
+        <v>2845.3</v>
       </c>
       <c r="E45">
-        <v>-0.09699999999999999</v>
+        <v>7.400000000000001</v>
       </c>
       <c r="F45">
-        <v>0.137</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1501,16 +1492,16 @@
         <v>74</v>
       </c>
       <c r="C46">
-        <v>1035</v>
+        <v>608.3</v>
       </c>
       <c r="D46">
-        <v>7495.7</v>
+        <v>2583.4</v>
       </c>
       <c r="E46">
-        <v>0.242</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="F46">
-        <v>0.219</v>
+        <v>-10.6</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1521,16 +1512,16 @@
         <v>72</v>
       </c>
       <c r="C47">
-        <v>838.3</v>
+        <v>2490.3</v>
       </c>
       <c r="D47">
-        <v>6297.3</v>
+        <v>10414.9</v>
       </c>
       <c r="E47">
-        <v>0.208</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>0.145</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1541,16 +1532,16 @@
         <v>73</v>
       </c>
       <c r="C48">
-        <v>1643.4</v>
+        <v>887.4</v>
       </c>
       <c r="D48">
-        <v>17745</v>
+        <v>3759.3</v>
       </c>
       <c r="E48">
-        <v>0.059</v>
+        <v>21.7</v>
       </c>
       <c r="F48">
-        <v>0.165</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1561,16 +1552,16 @@
         <v>74</v>
       </c>
       <c r="C49">
-        <v>917.1</v>
+        <v>655.5</v>
       </c>
       <c r="D49">
-        <v>6460.7</v>
+        <v>3260.2</v>
       </c>
       <c r="E49">
-        <v>0.409</v>
+        <v>5.3</v>
       </c>
       <c r="F49">
-        <v>0.236</v>
+        <v>-7.200000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1581,16 +1572,16 @@
         <v>72</v>
       </c>
       <c r="C50">
-        <v>849.5</v>
+        <v>1851.2</v>
       </c>
       <c r="D50">
-        <v>5588.2</v>
+        <v>12353</v>
       </c>
       <c r="E50">
-        <v>0.153</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>0.138</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1601,16 +1592,16 @@
         <v>73</v>
       </c>
       <c r="C51">
-        <v>2305.8</v>
+        <v>914.7</v>
       </c>
       <c r="D51">
-        <v>16348</v>
+        <v>4691.3</v>
       </c>
       <c r="E51">
-        <v>0.29</v>
+        <v>29.7</v>
       </c>
       <c r="F51">
-        <v>0.179</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1621,16 +1612,16 @@
         <v>74</v>
       </c>
       <c r="C52">
-        <v>727.4</v>
+        <v>686.2</v>
       </c>
       <c r="D52">
-        <v>5641.4</v>
+        <v>3984.9</v>
       </c>
       <c r="E52">
-        <v>0.159</v>
+        <v>37.3</v>
       </c>
       <c r="F52">
-        <v>0.199</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1641,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="C53">
-        <v>875</v>
+        <v>1533</v>
       </c>
       <c r="D53">
-        <v>4738.7</v>
+        <v>13887.9</v>
       </c>
       <c r="E53">
-        <v>0.214</v>
+        <v>0.5</v>
       </c>
       <c r="F53">
-        <v>0.133</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1661,16 +1652,16 @@
         <v>73</v>
       </c>
       <c r="C54">
-        <v>2637.6</v>
+        <v>908.5</v>
       </c>
       <c r="D54">
-        <v>14059.9</v>
+        <v>5537.2</v>
       </c>
       <c r="E54">
-        <v>0.252</v>
+        <v>28.5</v>
       </c>
       <c r="F54">
-        <v>0.166</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1681,16 +1672,16 @@
         <v>74</v>
       </c>
       <c r="C55">
-        <v>830.5</v>
+        <v>749.2</v>
       </c>
       <c r="D55">
-        <v>4913</v>
+        <v>4733.9</v>
       </c>
       <c r="E55">
-        <v>0.255</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F55">
-        <v>0.205</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1701,16 +1692,16 @@
         <v>72</v>
       </c>
       <c r="C56">
-        <v>850</v>
+        <v>1714.1</v>
       </c>
       <c r="D56">
-        <v>3857.9</v>
+        <v>15602.9</v>
       </c>
       <c r="E56">
-        <v>0.284</v>
+        <v>-8.5</v>
       </c>
       <c r="F56">
-        <v>0.124</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1721,16 +1712,16 @@
         <v>73</v>
       </c>
       <c r="C57">
-        <v>2606.3</v>
+        <v>935.8</v>
       </c>
       <c r="D57">
-        <v>11425</v>
+        <v>6476.1</v>
       </c>
       <c r="E57">
-        <v>0.183</v>
+        <v>28.2</v>
       </c>
       <c r="F57">
-        <v>0.142</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1741,16 +1732,16 @@
         <v>74</v>
       </c>
       <c r="C58">
-        <v>870.5</v>
+        <v>799.2</v>
       </c>
       <c r="D58">
-        <v>4082.5</v>
+        <v>5533.1</v>
       </c>
       <c r="E58">
-        <v>0.294</v>
+        <v>13.3</v>
       </c>
       <c r="F58">
-        <v>0.189</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1761,16 +1752,16 @@
         <v>72</v>
       </c>
       <c r="C59">
-        <v>840.9</v>
+        <v>1448.9</v>
       </c>
       <c r="D59">
-        <v>3009.4</v>
+        <v>17046.6</v>
       </c>
       <c r="E59">
-        <v>0.297</v>
+        <v>0.2</v>
       </c>
       <c r="F59">
-        <v>0.11</v>
+        <v>-10.7</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1781,16 +1772,16 @@
         <v>73</v>
       </c>
       <c r="C60">
-        <v>2586.9</v>
+        <v>879.6</v>
       </c>
       <c r="D60">
-        <v>8869.5</v>
+        <v>7381.7</v>
       </c>
       <c r="E60">
-        <v>0.121</v>
+        <v>25.8</v>
       </c>
       <c r="F60">
-        <v>0.122</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1801,16 +1792,16 @@
         <v>74</v>
       </c>
       <c r="C61">
-        <v>920.9</v>
+        <v>840.6</v>
       </c>
       <c r="D61">
-        <v>3211.4</v>
+        <v>6373.8</v>
       </c>
       <c r="E61">
-        <v>0.416</v>
+        <v>10.2</v>
       </c>
       <c r="F61">
-        <v>0.15</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1821,16 +1812,16 @@
         <v>72</v>
       </c>
       <c r="C62">
-        <v>936.3</v>
+        <v>1771.6</v>
       </c>
       <c r="D62">
-        <v>2226.6</v>
+        <v>18929.2</v>
       </c>
       <c r="E62">
-        <v>0.09</v>
+        <v>5.5</v>
       </c>
       <c r="F62">
-        <v>0.08400000000000001</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1841,16 +1832,16 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>2930.7</v>
+        <v>898.9</v>
       </c>
       <c r="D63">
-        <v>6260.1</v>
+        <v>8260.5</v>
       </c>
       <c r="E63">
-        <v>0.132</v>
+        <v>22.5</v>
       </c>
       <c r="F63">
-        <v>0.126</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1861,16 +1852,16 @@
         <v>74</v>
       </c>
       <c r="C64">
-        <v>907</v>
+        <v>856.6</v>
       </c>
       <c r="D64">
-        <v>2295.3</v>
+        <v>7228.5</v>
       </c>
       <c r="E64">
-        <v>0.188</v>
+        <v>13.1</v>
       </c>
       <c r="F64">
-        <v>0.06900000000000001</v>
+        <v>3.600000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1880,14 +1871,17 @@
       <c r="B65" t="s">
         <v>72</v>
       </c>
+      <c r="C65">
+        <v>2152.5</v>
+      </c>
       <c r="D65">
-        <v>1321</v>
+        <v>21064.6</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="F65">
-        <v>0.079</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1897,14 +1891,17 @@
       <c r="B66" t="s">
         <v>73</v>
       </c>
+      <c r="C66">
+        <v>796.4</v>
+      </c>
       <c r="D66">
-        <v>3330.5</v>
+        <v>9014.700000000001</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="F66">
-        <v>0.108</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1914,14 +1911,17 @@
       <c r="B67" t="s">
         <v>74</v>
       </c>
+      <c r="C67">
+        <v>806.4</v>
+      </c>
       <c r="D67">
-        <v>1408</v>
+        <v>8041.9</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="F67">
-        <v>0.018</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1931,17 +1931,14 @@
       <c r="B68" t="s">
         <v>72</v>
       </c>
-      <c r="C68">
-        <v>745.1</v>
-      </c>
       <c r="D68">
-        <v>8664.4</v>
+        <v>2940.4</v>
       </c>
       <c r="E68">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.036</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1951,17 +1948,14 @@
       <c r="B69" t="s">
         <v>73</v>
       </c>
-      <c r="C69">
-        <v>1770.5</v>
-      </c>
       <c r="D69">
-        <v>22247.3</v>
+        <v>1210.7</v>
       </c>
       <c r="E69">
-        <v>-0.099</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.018</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1971,17 +1965,14 @@
       <c r="B70" t="s">
         <v>74</v>
       </c>
-      <c r="C70">
-        <v>836.4</v>
-      </c>
       <c r="D70">
-        <v>9106.299999999999</v>
+        <v>1313.5</v>
       </c>
       <c r="E70">
-        <v>0.05400000000000001</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.046</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1992,16 +1983,16 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>758.6</v>
+        <v>2591.6</v>
       </c>
       <c r="D71">
-        <v>7917.5</v>
+        <v>5595.3</v>
       </c>
       <c r="E71">
-        <v>-0.07000000000000001</v>
+        <v>32</v>
       </c>
       <c r="F71">
-        <v>-0.03700000000000001</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2012,16 +2003,16 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>1513.2</v>
+        <v>946.6</v>
       </c>
       <c r="D72">
-        <v>20449.4</v>
+        <v>2157.8</v>
       </c>
       <c r="E72">
-        <v>-0.107</v>
+        <v>28.9</v>
       </c>
       <c r="F72">
-        <v>0.02</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2032,16 +2023,16 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>953.1</v>
+        <v>831.2</v>
       </c>
       <c r="D73">
-        <v>8271.1</v>
+        <v>2144.7</v>
       </c>
       <c r="E73">
-        <v>0.129</v>
+        <v>29.4</v>
       </c>
       <c r="F73">
-        <v>0.045</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2052,16 +2043,16 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>690</v>
+        <v>2421</v>
       </c>
       <c r="D74">
-        <v>7159</v>
+        <v>7939.6</v>
       </c>
       <c r="E74">
-        <v>-0.09699999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="F74">
-        <v>-0.033</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2072,16 +2063,16 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>1443.2</v>
+        <v>772.9</v>
       </c>
       <c r="D75">
-        <v>18959.5</v>
+        <v>2944.9</v>
       </c>
       <c r="E75">
-        <v>-0.033</v>
+        <v>8.5</v>
       </c>
       <c r="F75">
-        <v>0.032</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2092,16 +2083,16 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>880.6</v>
+        <v>772</v>
       </c>
       <c r="D76">
-        <v>7318</v>
+        <v>2916.7</v>
       </c>
       <c r="E76">
-        <v>0.129</v>
+        <v>34.2</v>
       </c>
       <c r="F76">
-        <v>0.03700000000000001</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2112,16 +2103,16 @@
         <v>72</v>
       </c>
       <c r="C77">
-        <v>799.5</v>
+        <v>2205.8</v>
       </c>
       <c r="D77">
-        <v>6433.1</v>
+        <v>10175.9</v>
       </c>
       <c r="E77">
-        <v>0.046</v>
+        <v>14</v>
       </c>
       <c r="F77">
-        <v>-0.031</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2132,16 +2123,16 @@
         <v>73</v>
       </c>
       <c r="C78">
-        <v>1858</v>
+        <v>748.7</v>
       </c>
       <c r="D78">
-        <v>17491.5</v>
+        <v>3711.6</v>
       </c>
       <c r="E78">
-        <v>0.209</v>
+        <v>-4.2</v>
       </c>
       <c r="F78">
-        <v>0.035</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2152,16 +2143,16 @@
         <v>74</v>
       </c>
       <c r="C79">
-        <v>870.3</v>
+        <v>703.2</v>
       </c>
       <c r="D79">
-        <v>6424.9</v>
+        <v>3618.4</v>
       </c>
       <c r="E79">
-        <v>0.244</v>
+        <v>12.1</v>
       </c>
       <c r="F79">
-        <v>0.023</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2172,16 +2163,16 @@
         <v>72</v>
       </c>
       <c r="C80">
-        <v>702.3</v>
+        <v>2167</v>
       </c>
       <c r="D80">
-        <v>5591</v>
+        <v>12328.3</v>
       </c>
       <c r="E80">
-        <v>-0.055</v>
+        <v>-12.1</v>
       </c>
       <c r="F80">
-        <v>-0.057</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2192,16 +2183,16 @@
         <v>73</v>
       </c>
       <c r="C81">
-        <v>1607.2</v>
+        <v>742.5</v>
       </c>
       <c r="D81">
-        <v>15722.1</v>
+        <v>4434.6</v>
       </c>
       <c r="E81">
-        <v>0.061</v>
+        <v>-15.4</v>
       </c>
       <c r="F81">
-        <v>0.019</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2212,16 +2203,16 @@
         <v>74</v>
       </c>
       <c r="C82">
-        <v>690.5</v>
+        <v>664</v>
       </c>
       <c r="D82">
-        <v>5460.5</v>
+        <v>4293.9</v>
       </c>
       <c r="E82">
-        <v>0.025</v>
+        <v>13</v>
       </c>
       <c r="F82">
-        <v>-0.023</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2232,16 +2223,16 @@
         <v>72</v>
       </c>
       <c r="C83">
-        <v>728.8</v>
+        <v>1801.8</v>
       </c>
       <c r="D83">
-        <v>4881.7</v>
+        <v>13768.6</v>
       </c>
       <c r="E83">
-        <v>-0.021</v>
+        <v>2.8</v>
       </c>
       <c r="F83">
-        <v>-0.059</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2252,16 +2243,16 @@
         <v>73</v>
       </c>
       <c r="C84">
-        <v>1829.9</v>
+        <v>741</v>
       </c>
       <c r="D84">
-        <v>14078.8</v>
+        <v>5177.3</v>
       </c>
       <c r="E84">
-        <v>0.006</v>
+        <v>-18.3</v>
       </c>
       <c r="F84">
-        <v>0.011</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2272,16 +2263,16 @@
         <v>74</v>
       </c>
       <c r="C85">
-        <v>657.7</v>
+        <v>623.8</v>
       </c>
       <c r="D85">
-        <v>4769</v>
+        <v>4917.7</v>
       </c>
       <c r="E85">
-        <v>0.05599999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="F85">
-        <v>-0.029</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2292,16 +2283,16 @@
         <v>72</v>
       </c>
       <c r="C86">
-        <v>734.4</v>
+        <v>1491.2</v>
       </c>
       <c r="D86">
-        <v>4164.2</v>
+        <v>15219.8</v>
       </c>
       <c r="E86">
-        <v>-0.008</v>
+        <v>4.3</v>
       </c>
       <c r="F86">
-        <v>-0.062</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2312,16 +2303,16 @@
         <v>73</v>
       </c>
       <c r="C87">
-        <v>2221.4</v>
+        <v>736.4</v>
       </c>
       <c r="D87">
-        <v>12248.9</v>
+        <v>5913.5</v>
       </c>
       <c r="E87">
-        <v>0.044</v>
+        <v>-19</v>
       </c>
       <c r="F87">
-        <v>0.011</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2332,16 +2323,16 @@
         <v>74</v>
       </c>
       <c r="C88">
-        <v>660.6</v>
+        <v>673.8</v>
       </c>
       <c r="D88">
-        <v>4113.3</v>
+        <v>5591.5</v>
       </c>
       <c r="E88">
-        <v>-0.006999999999999999</v>
+        <v>-10</v>
       </c>
       <c r="F88">
-        <v>-0.04099999999999999</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2352,16 +2343,16 @@
         <v>72</v>
       </c>
       <c r="C89">
-        <v>667</v>
+        <v>1508.1</v>
       </c>
       <c r="D89">
-        <v>3401</v>
+        <v>16659</v>
       </c>
       <c r="E89">
-        <v>-0.115</v>
+        <v>-6.9</v>
       </c>
       <c r="F89">
-        <v>-0.081</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2372,16 +2363,16 @@
         <v>73</v>
       </c>
       <c r="C90">
-        <v>2182.9</v>
+        <v>763.8</v>
       </c>
       <c r="D90">
-        <v>9933.5</v>
+        <v>6620.1</v>
       </c>
       <c r="E90">
-        <v>0.001</v>
+        <v>-18.5</v>
       </c>
       <c r="F90">
-        <v>-0.008</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2392,16 +2383,16 @@
         <v>74</v>
       </c>
       <c r="C91">
-        <v>679.5</v>
+        <v>699.5</v>
       </c>
       <c r="D91">
-        <v>3471.7</v>
+        <v>6282.9</v>
       </c>
       <c r="E91">
-        <v>-0.033</v>
+        <v>-12.2</v>
       </c>
       <c r="F91">
-        <v>-0.04099999999999999</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2412,16 +2403,16 @@
         <v>72</v>
       </c>
       <c r="C92">
-        <v>652.4</v>
+        <v>1454.9</v>
       </c>
       <c r="D92">
-        <v>2724.9</v>
+        <v>18092.4</v>
       </c>
       <c r="E92">
-        <v>-0.158</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>-0.075</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2432,16 +2423,16 @@
         <v>73</v>
       </c>
       <c r="C93">
-        <v>2279.2</v>
+        <v>763.6</v>
       </c>
       <c r="D93">
-        <v>7742.9</v>
+        <v>7412.2</v>
       </c>
       <c r="E93">
-        <v>-0.04</v>
+        <v>-13.5</v>
       </c>
       <c r="F93">
-        <v>-0.006999999999999999</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2452,16 +2443,16 @@
         <v>74</v>
       </c>
       <c r="C94">
-        <v>649.9</v>
+        <v>766.8</v>
       </c>
       <c r="D94">
-        <v>2792.4</v>
+        <v>6968.5</v>
       </c>
       <c r="E94">
-        <v>-0.158</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="F94">
-        <v>-0.043</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2472,16 +2463,16 @@
         <v>72</v>
       </c>
       <c r="C95">
-        <v>867.1</v>
+        <v>1662.8</v>
       </c>
       <c r="D95">
-        <v>2065.7</v>
+        <v>19741.4</v>
       </c>
       <c r="E95">
-        <v>-0.1</v>
+        <v>3.700000000000001</v>
       </c>
       <c r="F95">
-        <v>-0.059</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2492,16 +2483,16 @@
         <v>73</v>
       </c>
       <c r="C96">
-        <v>2552.5</v>
+        <v>808.5</v>
       </c>
       <c r="D96">
-        <v>5446.7</v>
+        <v>8253.299999999999</v>
       </c>
       <c r="E96">
-        <v>0.005</v>
+        <v>-10.3</v>
       </c>
       <c r="F96">
-        <v>0.006999999999999999</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2512,16 +2503,16 @@
         <v>74</v>
       </c>
       <c r="C97">
-        <v>761</v>
+        <v>843.8</v>
       </c>
       <c r="D97">
-        <v>2141.8</v>
+        <v>7833</v>
       </c>
       <c r="E97">
-        <v>-0.08400000000000001</v>
+        <v>-1.5</v>
       </c>
       <c r="F97">
-        <v>-0.001</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2531,14 +2522,17 @@
       <c r="B98" t="s">
         <v>72</v>
       </c>
+      <c r="C98">
+        <v>1963.5</v>
+      </c>
       <c r="D98">
-        <v>1194</v>
+        <v>21835.7</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="F98">
-        <v>-0.025</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2548,14 +2542,17 @@
       <c r="B99" t="s">
         <v>73</v>
       </c>
+      <c r="C99">
+        <v>757.8</v>
+      </c>
       <c r="D99">
-        <v>2925.9</v>
+        <v>8992.1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="F99">
-        <v>0.039</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2565,14 +2562,17 @@
       <c r="B100" t="s">
         <v>74</v>
       </c>
+      <c r="C100">
+        <v>785.6</v>
+      </c>
       <c r="D100">
-        <v>1380.3</v>
+        <v>8618.5</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-2.7</v>
       </c>
       <c r="F100">
-        <v>0.05</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2582,17 +2582,14 @@
       <c r="B101" t="s">
         <v>72</v>
       </c>
-      <c r="C101">
-        <v>757.8</v>
-      </c>
       <c r="D101">
-        <v>8992.1</v>
+        <v>2925.9</v>
       </c>
       <c r="E101">
-        <v>-0.052</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>-0.004</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2602,17 +2599,14 @@
       <c r="B102" t="s">
         <v>73</v>
       </c>
-      <c r="C102">
-        <v>1963.5</v>
-      </c>
       <c r="D102">
-        <v>21835.7</v>
+        <v>1194</v>
       </c>
       <c r="E102">
-        <v>-0.017</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.094</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2622,17 +2616,14 @@
       <c r="B103" t="s">
         <v>74</v>
       </c>
-      <c r="C103">
-        <v>785.6</v>
-      </c>
       <c r="D103">
-        <v>8618.5</v>
+        <v>1380.3</v>
       </c>
       <c r="E103">
-        <v>-0.027</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.095</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2643,16 +2634,16 @@
         <v>72</v>
       </c>
       <c r="C104">
-        <v>808.5</v>
+        <v>2552.5</v>
       </c>
       <c r="D104">
-        <v>8253.299999999999</v>
+        <v>5446.7</v>
       </c>
       <c r="E104">
-        <v>-0.103</v>
+        <v>0.5</v>
       </c>
       <c r="F104">
-        <v>-0.002</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2663,16 +2654,16 @@
         <v>73</v>
       </c>
       <c r="C105">
-        <v>1662.8</v>
+        <v>867.1</v>
       </c>
       <c r="D105">
-        <v>19741.4</v>
+        <v>2065.7</v>
       </c>
       <c r="E105">
-        <v>0.03700000000000001</v>
+        <v>-10</v>
       </c>
       <c r="F105">
-        <v>0.114</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2683,16 +2674,16 @@
         <v>74</v>
       </c>
       <c r="C106">
-        <v>843.8</v>
+        <v>761</v>
       </c>
       <c r="D106">
-        <v>7833</v>
+        <v>2141.8</v>
       </c>
       <c r="E106">
-        <v>-0.015</v>
+        <v>-8.4</v>
       </c>
       <c r="F106">
-        <v>0.111</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2703,16 +2694,16 @@
         <v>72</v>
       </c>
       <c r="C107">
-        <v>763.6</v>
+        <v>2279.2</v>
       </c>
       <c r="D107">
-        <v>7412.2</v>
+        <v>7742.9</v>
       </c>
       <c r="E107">
-        <v>-0.135</v>
+        <v>-4</v>
       </c>
       <c r="F107">
-        <v>0.003</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2723,16 +2714,16 @@
         <v>73</v>
       </c>
       <c r="C108">
-        <v>1454.9</v>
+        <v>652.4</v>
       </c>
       <c r="D108">
-        <v>18092.4</v>
+        <v>2724.9</v>
       </c>
       <c r="E108">
-        <v>0.06</v>
+        <v>-15.8</v>
       </c>
       <c r="F108">
-        <v>0.123</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2743,16 +2734,16 @@
         <v>74</v>
       </c>
       <c r="C109">
-        <v>766.8</v>
+        <v>649.9</v>
       </c>
       <c r="D109">
-        <v>6968.5</v>
+        <v>2792.4</v>
       </c>
       <c r="E109">
-        <v>-0.08699999999999999</v>
+        <v>-15.8</v>
       </c>
       <c r="F109">
-        <v>0.124</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2763,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="C110">
-        <v>763.8</v>
+        <v>2182.9</v>
       </c>
       <c r="D110">
-        <v>6620.1</v>
+        <v>9933.5</v>
       </c>
       <c r="E110">
-        <v>-0.185</v>
+        <v>0.1</v>
       </c>
       <c r="F110">
-        <v>0.021</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2783,16 +2774,16 @@
         <v>73</v>
       </c>
       <c r="C111">
-        <v>1508.1</v>
+        <v>667</v>
       </c>
       <c r="D111">
-        <v>16659</v>
+        <v>3401</v>
       </c>
       <c r="E111">
-        <v>-0.06900000000000001</v>
+        <v>-11.5</v>
       </c>
       <c r="F111">
-        <v>0.13</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2803,16 +2794,16 @@
         <v>74</v>
       </c>
       <c r="C112">
-        <v>699.5</v>
+        <v>679.5</v>
       </c>
       <c r="D112">
-        <v>6282.9</v>
+        <v>3471.7</v>
       </c>
       <c r="E112">
-        <v>-0.122</v>
+        <v>-3.3</v>
       </c>
       <c r="F112">
-        <v>0.173</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2823,16 +2814,16 @@
         <v>72</v>
       </c>
       <c r="C113">
-        <v>736.4</v>
+        <v>2221.4</v>
       </c>
       <c r="D113">
-        <v>5913.5</v>
+        <v>12248.9</v>
       </c>
       <c r="E113">
-        <v>-0.19</v>
+        <v>4.4</v>
       </c>
       <c r="F113">
-        <v>0.067</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2843,16 +2834,16 @@
         <v>73</v>
       </c>
       <c r="C114">
-        <v>1491.2</v>
+        <v>734.4</v>
       </c>
       <c r="D114">
-        <v>15219.8</v>
+        <v>4164.2</v>
       </c>
       <c r="E114">
-        <v>0.043</v>
+        <v>-0.8</v>
       </c>
       <c r="F114">
-        <v>0.156</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2863,16 +2854,16 @@
         <v>74</v>
       </c>
       <c r="C115">
-        <v>673.8</v>
+        <v>660.6</v>
       </c>
       <c r="D115">
-        <v>5591.5</v>
+        <v>4113.3</v>
       </c>
       <c r="E115">
-        <v>-0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="F115">
-        <v>0.226</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2883,16 +2874,16 @@
         <v>72</v>
       </c>
       <c r="C116">
-        <v>741</v>
+        <v>1829.9</v>
       </c>
       <c r="D116">
-        <v>5177.3</v>
+        <v>14078.8</v>
       </c>
       <c r="E116">
-        <v>-0.183</v>
+        <v>0.6</v>
       </c>
       <c r="F116">
-        <v>0.113</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2903,16 +2894,16 @@
         <v>73</v>
       </c>
       <c r="C117">
-        <v>1801.8</v>
+        <v>728.8</v>
       </c>
       <c r="D117">
-        <v>13768.6</v>
+        <v>4881.7</v>
       </c>
       <c r="E117">
-        <v>0.028</v>
+        <v>-2.1</v>
       </c>
       <c r="F117">
-        <v>0.173</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2923,16 +2914,16 @@
         <v>74</v>
       </c>
       <c r="C118">
-        <v>623.8</v>
+        <v>657.7</v>
       </c>
       <c r="D118">
-        <v>4917.7</v>
+        <v>4769</v>
       </c>
       <c r="E118">
-        <v>0.042</v>
+        <v>5.6</v>
       </c>
       <c r="F118">
-        <v>0.29</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2943,16 +2934,16 @@
         <v>72</v>
       </c>
       <c r="C119">
-        <v>742.5</v>
+        <v>1607.2</v>
       </c>
       <c r="D119">
-        <v>4434.6</v>
+        <v>15722.1</v>
       </c>
       <c r="E119">
-        <v>-0.154</v>
+        <v>6.1</v>
       </c>
       <c r="F119">
-        <v>0.188</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2963,16 +2954,16 @@
         <v>73</v>
       </c>
       <c r="C120">
-        <v>2167</v>
+        <v>702.3</v>
       </c>
       <c r="D120">
-        <v>12328.3</v>
+        <v>5591</v>
       </c>
       <c r="E120">
-        <v>-0.121</v>
+        <v>-5.5</v>
       </c>
       <c r="F120">
-        <v>0.21</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2983,16 +2974,16 @@
         <v>74</v>
       </c>
       <c r="C121">
-        <v>664</v>
+        <v>690.5</v>
       </c>
       <c r="D121">
-        <v>4293.9</v>
+        <v>5460.5</v>
       </c>
       <c r="E121">
-        <v>0.13</v>
+        <v>2.5</v>
       </c>
       <c r="F121">
-        <v>0.335</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3003,16 +2994,16 @@
         <v>72</v>
       </c>
       <c r="C122">
-        <v>748.7</v>
+        <v>1858</v>
       </c>
       <c r="D122">
-        <v>3711.6</v>
+        <v>17491.5</v>
       </c>
       <c r="E122">
-        <v>-0.042</v>
+        <v>20.9</v>
       </c>
       <c r="F122">
-        <v>0.292</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3023,16 +3014,16 @@
         <v>73</v>
       </c>
       <c r="C123">
-        <v>2205.8</v>
+        <v>799.5</v>
       </c>
       <c r="D123">
-        <v>10175.9</v>
+        <v>6433.1</v>
       </c>
       <c r="E123">
-        <v>0.14</v>
+        <v>4.6</v>
       </c>
       <c r="F123">
-        <v>0.334</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3043,16 +3034,16 @@
         <v>74</v>
       </c>
       <c r="C124">
-        <v>703.2</v>
+        <v>870.3</v>
       </c>
       <c r="D124">
-        <v>3618.4</v>
+        <v>6424.9</v>
       </c>
       <c r="E124">
-        <v>0.121</v>
+        <v>24.4</v>
       </c>
       <c r="F124">
-        <v>0.373</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3063,16 +3054,16 @@
         <v>72</v>
       </c>
       <c r="C125">
-        <v>772.9</v>
+        <v>1443.2</v>
       </c>
       <c r="D125">
-        <v>2944.9</v>
+        <v>18959.5</v>
       </c>
       <c r="E125">
-        <v>0.08500000000000001</v>
+        <v>-3.3</v>
       </c>
       <c r="F125">
-        <v>0.409</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3083,16 +3074,16 @@
         <v>73</v>
       </c>
       <c r="C126">
-        <v>2421</v>
+        <v>690</v>
       </c>
       <c r="D126">
-        <v>7939.6</v>
+        <v>7159</v>
       </c>
       <c r="E126">
-        <v>0.225</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="F126">
-        <v>0.395</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3103,16 +3094,16 @@
         <v>74</v>
       </c>
       <c r="C127">
-        <v>772</v>
+        <v>880.6</v>
       </c>
       <c r="D127">
-        <v>2916.7</v>
+        <v>7318</v>
       </c>
       <c r="E127">
-        <v>0.342</v>
+        <v>12.9</v>
       </c>
       <c r="F127">
-        <v>0.448</v>
+        <v>3.700000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3123,16 +3114,16 @@
         <v>72</v>
       </c>
       <c r="C128">
-        <v>946.6</v>
+        <v>1513.2</v>
       </c>
       <c r="D128">
-        <v>2157.8</v>
+        <v>20449.4</v>
       </c>
       <c r="E128">
-        <v>0.289</v>
+        <v>-10.7</v>
       </c>
       <c r="F128">
-        <v>0.546</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3143,16 +3134,16 @@
         <v>73</v>
       </c>
       <c r="C129">
-        <v>2591.6</v>
+        <v>758.6</v>
       </c>
       <c r="D129">
-        <v>5595.3</v>
+        <v>7917.5</v>
       </c>
       <c r="E129">
-        <v>0.32</v>
+        <v>-7.000000000000001</v>
       </c>
       <c r="F129">
-        <v>0.498</v>
+        <v>-3.700000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3163,16 +3154,16 @@
         <v>74</v>
       </c>
       <c r="C130">
-        <v>831.2</v>
+        <v>953.1</v>
       </c>
       <c r="D130">
-        <v>2144.7</v>
+        <v>8271.1</v>
       </c>
       <c r="E130">
-        <v>0.294</v>
+        <v>12.9</v>
       </c>
       <c r="F130">
-        <v>0.507</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3182,14 +3173,17 @@
       <c r="B131" t="s">
         <v>72</v>
       </c>
+      <c r="C131">
+        <v>1770.5</v>
+      </c>
       <c r="D131">
-        <v>1210.7</v>
+        <v>22247.3</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>-9.9</v>
       </c>
       <c r="F131">
-        <v>0.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3199,14 +3193,17 @@
       <c r="B132" t="s">
         <v>73</v>
       </c>
+      <c r="C132">
+        <v>745.1</v>
+      </c>
       <c r="D132">
-        <v>2940.4</v>
+        <v>8664.4</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F132">
-        <v>0.708</v>
+        <v>-3.600000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3216,14 +3213,17 @@
       <c r="B133" t="s">
         <v>74</v>
       </c>
+      <c r="C133">
+        <v>836.4</v>
+      </c>
       <c r="D133">
-        <v>1313.5</v>
+        <v>9106.299999999999</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F133">
-        <v>0.6820000000000001</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3233,17 +3233,14 @@
       <c r="B134" t="s">
         <v>72</v>
       </c>
-      <c r="C134">
-        <v>796.4</v>
-      </c>
       <c r="D134">
-        <v>9014.700000000001</v>
+        <v>3330.5</v>
       </c>
       <c r="E134">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.08400000000000001</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3253,17 +3250,14 @@
       <c r="B135" t="s">
         <v>73</v>
       </c>
-      <c r="C135">
-        <v>2152.5</v>
-      </c>
       <c r="D135">
-        <v>21064.6</v>
+        <v>1321</v>
       </c>
       <c r="E135">
-        <v>-0.029</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>-0.083</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3273,17 +3267,14 @@
       <c r="B136" t="s">
         <v>74</v>
       </c>
-      <c r="C136">
-        <v>806.4</v>
-      </c>
       <c r="D136">
-        <v>8041.9</v>
+        <v>1408</v>
       </c>
       <c r="E136">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.039</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3294,16 +3285,16 @@
         <v>72</v>
       </c>
       <c r="C137">
-        <v>898.9</v>
+        <v>2930.7</v>
       </c>
       <c r="D137">
-        <v>8260.5</v>
+        <v>6260.1</v>
       </c>
       <c r="E137">
-        <v>0.225</v>
+        <v>13.2</v>
       </c>
       <c r="F137">
-        <v>0.063</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3314,16 +3305,16 @@
         <v>73</v>
       </c>
       <c r="C138">
-        <v>1771.6</v>
+        <v>936.3</v>
       </c>
       <c r="D138">
-        <v>18929.2</v>
+        <v>2226.6</v>
       </c>
       <c r="E138">
-        <v>0.055</v>
+        <v>9</v>
       </c>
       <c r="F138">
-        <v>-0.08800000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3334,16 +3325,16 @@
         <v>74</v>
       </c>
       <c r="C139">
-        <v>856.6</v>
+        <v>907</v>
       </c>
       <c r="D139">
-        <v>7228.5</v>
+        <v>2295.3</v>
       </c>
       <c r="E139">
-        <v>0.131</v>
+        <v>18.8</v>
       </c>
       <c r="F139">
-        <v>0.036</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3354,16 +3345,16 @@
         <v>72</v>
       </c>
       <c r="C140">
-        <v>879.6</v>
+        <v>2586.9</v>
       </c>
       <c r="D140">
-        <v>7381.7</v>
+        <v>8869.5</v>
       </c>
       <c r="E140">
-        <v>0.258</v>
+        <v>12.1</v>
       </c>
       <c r="F140">
-        <v>0.04</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3374,16 +3365,16 @@
         <v>73</v>
       </c>
       <c r="C141">
-        <v>1448.9</v>
+        <v>840.9</v>
       </c>
       <c r="D141">
-        <v>17046.6</v>
+        <v>3009.4</v>
       </c>
       <c r="E141">
-        <v>0.002</v>
+        <v>29.7</v>
       </c>
       <c r="F141">
-        <v>-0.107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3394,16 +3385,16 @@
         <v>74</v>
       </c>
       <c r="C142">
-        <v>840.6</v>
+        <v>920.9</v>
       </c>
       <c r="D142">
-        <v>6373.8</v>
+        <v>3211.4</v>
       </c>
       <c r="E142">
-        <v>0.102</v>
+        <v>41.6</v>
       </c>
       <c r="F142">
-        <v>0.016</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3414,16 +3405,16 @@
         <v>72</v>
       </c>
       <c r="C143">
-        <v>935.8</v>
+        <v>2606.3</v>
       </c>
       <c r="D143">
-        <v>6476.1</v>
+        <v>11425</v>
       </c>
       <c r="E143">
-        <v>0.282</v>
+        <v>18.3</v>
       </c>
       <c r="F143">
-        <v>0.017</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3434,16 +3425,16 @@
         <v>73</v>
       </c>
       <c r="C144">
-        <v>1714.1</v>
+        <v>850</v>
       </c>
       <c r="D144">
-        <v>15602.9</v>
+        <v>3857.9</v>
       </c>
       <c r="E144">
-        <v>-0.08500000000000001</v>
+        <v>28.4</v>
       </c>
       <c r="F144">
-        <v>-0.117</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3454,16 +3445,16 @@
         <v>74</v>
       </c>
       <c r="C145">
-        <v>799.2</v>
+        <v>870.5</v>
       </c>
       <c r="D145">
-        <v>5533.1</v>
+        <v>4082.5</v>
       </c>
       <c r="E145">
-        <v>0.133</v>
+        <v>29.4</v>
       </c>
       <c r="F145">
-        <v>0.005</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3474,16 +3465,16 @@
         <v>72</v>
       </c>
       <c r="C146">
-        <v>908.5</v>
+        <v>2637.6</v>
       </c>
       <c r="D146">
-        <v>5537.2</v>
+        <v>14059.9</v>
       </c>
       <c r="E146">
-        <v>0.285</v>
+        <v>25.2</v>
       </c>
       <c r="F146">
-        <v>-0.019</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3494,16 +3485,16 @@
         <v>73</v>
       </c>
       <c r="C147">
-        <v>1533</v>
+        <v>875</v>
       </c>
       <c r="D147">
-        <v>13887.9</v>
+        <v>4738.7</v>
       </c>
       <c r="E147">
-        <v>0.005</v>
+        <v>21.4</v>
       </c>
       <c r="F147">
-        <v>-0.122</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3514,16 +3505,16 @@
         <v>74</v>
       </c>
       <c r="C148">
-        <v>749.2</v>
+        <v>830.5</v>
       </c>
       <c r="D148">
-        <v>4733.9</v>
+        <v>4913</v>
       </c>
       <c r="E148">
-        <v>0.09300000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="F148">
-        <v>-0.014</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3534,16 +3525,16 @@
         <v>72</v>
       </c>
       <c r="C149">
-        <v>914.7</v>
+        <v>2305.8</v>
       </c>
       <c r="D149">
-        <v>4691.3</v>
+        <v>16348</v>
       </c>
       <c r="E149">
-        <v>0.297</v>
+        <v>29</v>
       </c>
       <c r="F149">
-        <v>-0.02</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3554,16 +3545,16 @@
         <v>73</v>
       </c>
       <c r="C150">
-        <v>1851.2</v>
+        <v>849.5</v>
       </c>
       <c r="D150">
-        <v>12353</v>
+        <v>5588.2</v>
       </c>
       <c r="E150">
-        <v>0.06</v>
+        <v>15.3</v>
       </c>
       <c r="F150">
-        <v>-0.14</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3574,16 +3565,16 @@
         <v>74</v>
       </c>
       <c r="C151">
-        <v>686.2</v>
+        <v>727.4</v>
       </c>
       <c r="D151">
-        <v>3984.9</v>
+        <v>5641.4</v>
       </c>
       <c r="E151">
-        <v>0.373</v>
+        <v>15.9</v>
       </c>
       <c r="F151">
-        <v>-0.026</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3594,16 +3585,16 @@
         <v>72</v>
       </c>
       <c r="C152">
-        <v>887.4</v>
+        <v>1643.4</v>
       </c>
       <c r="D152">
-        <v>3759.3</v>
+        <v>17745</v>
       </c>
       <c r="E152">
-        <v>0.217</v>
+        <v>5.9</v>
       </c>
       <c r="F152">
-        <v>-0.06900000000000001</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3614,16 +3605,16 @@
         <v>73</v>
       </c>
       <c r="C153">
-        <v>2490.3</v>
+        <v>838.3</v>
       </c>
       <c r="D153">
-        <v>10414.9</v>
+        <v>6297.3</v>
       </c>
       <c r="E153">
-        <v>0.12</v>
+        <v>20.8</v>
       </c>
       <c r="F153">
-        <v>-0.164</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3634,16 +3625,16 @@
         <v>74</v>
       </c>
       <c r="C154">
-        <v>655.5</v>
+        <v>917.1</v>
       </c>
       <c r="D154">
-        <v>3260.2</v>
+        <v>6460.7</v>
       </c>
       <c r="E154">
-        <v>0.053</v>
+        <v>40.9</v>
       </c>
       <c r="F154">
-        <v>-0.07200000000000001</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3654,16 +3645,16 @@
         <v>72</v>
       </c>
       <c r="C155">
-        <v>776.7</v>
+        <v>1611.4</v>
       </c>
       <c r="D155">
-        <v>2845.3</v>
+        <v>19366.2</v>
       </c>
       <c r="E155">
-        <v>0.07400000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="F155">
-        <v>-0.127</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3674,16 +3665,16 @@
         <v>73</v>
       </c>
       <c r="C156">
-        <v>1942.8</v>
+        <v>885.1</v>
       </c>
       <c r="D156">
-        <v>7798.8</v>
+        <v>7182.4</v>
       </c>
       <c r="E156">
-        <v>-0.147</v>
+        <v>13.2</v>
       </c>
       <c r="F156">
-        <v>-0.231</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3694,16 +3685,16 @@
         <v>74</v>
       </c>
       <c r="C157">
-        <v>608.3</v>
+        <v>1035</v>
       </c>
       <c r="D157">
-        <v>2583.4</v>
+        <v>7495.7</v>
       </c>
       <c r="E157">
-        <v>-0.08199999999999999</v>
+        <v>24.2</v>
       </c>
       <c r="F157">
-        <v>-0.106</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3714,16 +3705,16 @@
         <v>72</v>
       </c>
       <c r="C158">
-        <v>701.5</v>
+        <v>1373</v>
       </c>
       <c r="D158">
-        <v>2053.3</v>
+        <v>20738.5</v>
       </c>
       <c r="E158">
-        <v>-0.033</v>
+        <v>-0.5</v>
       </c>
       <c r="F158">
-        <v>-0.165</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3734,16 +3725,16 @@
         <v>73</v>
       </c>
       <c r="C159">
-        <v>1915.9</v>
+        <v>827.2</v>
       </c>
       <c r="D159">
-        <v>5581.5</v>
+        <v>7996.8</v>
       </c>
       <c r="E159">
-        <v>-0.173</v>
+        <v>20.3</v>
       </c>
       <c r="F159">
-        <v>-0.248</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3754,16 +3745,16 @@
         <v>74</v>
       </c>
       <c r="C160">
-        <v>555.7</v>
+        <v>1005.7</v>
       </c>
       <c r="D160">
-        <v>1979.9</v>
+        <v>8500.5</v>
       </c>
       <c r="E160">
-        <v>-0.1</v>
+        <v>14.5</v>
       </c>
       <c r="F160">
-        <v>-0.111</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3774,16 +3765,16 @@
         <v>72</v>
       </c>
       <c r="C161">
-        <v>726.6</v>
+        <v>1595.7</v>
       </c>
       <c r="D161">
-        <v>1373.1</v>
+        <v>22334.1</v>
       </c>
       <c r="E161">
-        <v>0.04</v>
+        <v>12.8</v>
       </c>
       <c r="F161">
-        <v>-0.198</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3794,16 +3785,16 @@
         <v>73</v>
       </c>
       <c r="C162">
-        <v>1940.3</v>
+        <v>828.6</v>
       </c>
       <c r="D162">
-        <v>3688.1</v>
+        <v>8815.4</v>
       </c>
       <c r="E162">
-        <v>-0.188</v>
+        <v>20.4</v>
       </c>
       <c r="F162">
-        <v>-0.279</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3814,16 +3805,16 @@
         <v>74</v>
       </c>
       <c r="C163">
-        <v>640</v>
+        <v>1025.3</v>
       </c>
       <c r="D163">
-        <v>1416.2</v>
+        <v>9535.799999999999</v>
       </c>
       <c r="E163">
-        <v>0.005</v>
+        <v>13.4</v>
       </c>
       <c r="F163">
-        <v>-0.119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3833,14 +3824,17 @@
       <c r="B164" t="s">
         <v>72</v>
       </c>
+      <c r="C164">
+        <v>2152.9</v>
+      </c>
       <c r="D164">
-        <v>667</v>
+        <v>24487</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="F164">
-        <v>-0.374</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3850,14 +3844,17 @@
       <c r="B165" t="s">
         <v>73</v>
       </c>
+      <c r="C165">
+        <v>817.3</v>
+      </c>
       <c r="D165">
-        <v>1628.5</v>
+        <v>9632.299999999999</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="F165">
-        <v>-0.402</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3867,14 +3864,17 @@
       <c r="B166" t="s">
         <v>74</v>
       </c>
+      <c r="C166">
+        <v>923.4</v>
+      </c>
       <c r="D166">
-        <v>775.7</v>
+        <v>10458.3</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="F166">
-        <v>-0.202</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3884,17 +3884,14 @@
       <c r="B167" t="s">
         <v>72</v>
       </c>
-      <c r="C167">
-        <v>690.2</v>
-      </c>
       <c r="D167">
-        <v>7904.3</v>
+        <v>3763.6</v>
       </c>
       <c r="E167">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.081</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3904,17 +3901,14 @@
       <c r="B168" t="s">
         <v>73</v>
       </c>
-      <c r="C168">
-        <v>2034.9</v>
-      </c>
       <c r="D168">
-        <v>21866.2</v>
+        <v>1374.4</v>
       </c>
       <c r="E168">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.065</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3924,17 +3918,14 @@
       <c r="B169" t="s">
         <v>74</v>
       </c>
-      <c r="C169">
-        <v>726.5</v>
-      </c>
       <c r="D169">
-        <v>7433</v>
+        <v>1622.5</v>
       </c>
       <c r="E169">
-        <v>0.09699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.098</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3945,16 +3936,16 @@
         <v>72</v>
       </c>
       <c r="C170">
-        <v>722.2</v>
+        <v>3083.3</v>
       </c>
       <c r="D170">
-        <v>7657.4</v>
+        <v>6878</v>
       </c>
       <c r="E170">
-        <v>0.077</v>
+        <v>13.2</v>
       </c>
       <c r="F170">
-        <v>0.04</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3965,16 +3956,16 @@
         <v>73</v>
       </c>
       <c r="C171">
-        <v>1545.5</v>
+        <v>993.4</v>
       </c>
       <c r="D171">
-        <v>19956.1</v>
+        <v>2362.1</v>
       </c>
       <c r="E171">
-        <v>0.012</v>
+        <v>13.2</v>
       </c>
       <c r="F171">
-        <v>0.058</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3985,16 +3976,16 @@
         <v>74</v>
       </c>
       <c r="C172">
-        <v>720.9</v>
+        <v>932.4</v>
       </c>
       <c r="D172">
-        <v>6710</v>
+        <v>2559.9</v>
       </c>
       <c r="E172">
-        <v>0.2</v>
+        <v>5.9</v>
       </c>
       <c r="F172">
-        <v>0.101</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4005,16 +3996,16 @@
         <v>72</v>
       </c>
       <c r="C173">
-        <v>704.6</v>
+        <v>3033.1</v>
       </c>
       <c r="D173">
-        <v>7110.9</v>
+        <v>9914</v>
       </c>
       <c r="E173">
-        <v>0.03</v>
+        <v>20</v>
       </c>
       <c r="F173">
-        <v>0.038</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4025,16 +4016,16 @@
         <v>73</v>
       </c>
       <c r="C174">
-        <v>1332.2</v>
+        <v>933.6</v>
       </c>
       <c r="D174">
-        <v>18331.7</v>
+        <v>3285.9</v>
       </c>
       <c r="E174">
-        <v>-0.021</v>
+        <v>15.4</v>
       </c>
       <c r="F174">
-        <v>0.062</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4045,16 +4036,16 @@
         <v>74</v>
       </c>
       <c r="C175">
-        <v>761.5</v>
+        <v>944.3</v>
       </c>
       <c r="D175">
-        <v>6341.5</v>
+        <v>3546.2</v>
       </c>
       <c r="E175">
-        <v>0.135</v>
+        <v>2.3</v>
       </c>
       <c r="F175">
-        <v>0.076</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4065,16 +4056,16 @@
         <v>72</v>
       </c>
       <c r="C176">
-        <v>736.7</v>
+        <v>2905</v>
       </c>
       <c r="D176">
-        <v>6427.3</v>
+        <v>12880.7</v>
       </c>
       <c r="E176">
-        <v>0.039</v>
+        <v>12.9</v>
       </c>
       <c r="F176">
-        <v>0.043</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4085,16 +4076,16 @@
         <v>73</v>
       </c>
       <c r="C177">
-        <v>1783.9</v>
+        <v>893.2</v>
       </c>
       <c r="D177">
-        <v>17005.4</v>
+        <v>4179.1</v>
       </c>
       <c r="E177">
-        <v>0.106</v>
+        <v>5.2</v>
       </c>
       <c r="F177">
-        <v>0.064</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4105,16 +4096,16 @@
         <v>74</v>
       </c>
       <c r="C178">
-        <v>720.5</v>
+        <v>927.4</v>
       </c>
       <c r="D178">
-        <v>5637.5</v>
+        <v>4495.4</v>
       </c>
       <c r="E178">
-        <v>0.076</v>
+        <v>4.2</v>
       </c>
       <c r="F178">
-        <v>0.075</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4125,16 +4116,16 @@
         <v>72</v>
       </c>
       <c r="C179">
-        <v>701.7</v>
+        <v>2805.3</v>
       </c>
       <c r="D179">
-        <v>5736.5</v>
+        <v>15705.6</v>
       </c>
       <c r="E179">
-        <v>-0.052</v>
+        <v>5.7</v>
       </c>
       <c r="F179">
-        <v>0.028</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4145,16 +4136,16 @@
         <v>73</v>
       </c>
       <c r="C180">
-        <v>1433.2</v>
+        <v>871.8</v>
       </c>
       <c r="D180">
-        <v>15239.5</v>
+        <v>5051</v>
       </c>
       <c r="E180">
-        <v>-0.029</v>
+        <v>0.1</v>
       </c>
       <c r="F180">
-        <v>0.079</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4165,16 +4156,16 @@
         <v>74</v>
       </c>
       <c r="C181">
-        <v>678.2</v>
+        <v>815.7</v>
       </c>
       <c r="D181">
-        <v>4917</v>
+        <v>5311.6</v>
       </c>
       <c r="E181">
-        <v>0.049</v>
+        <v>-3.600000000000001</v>
       </c>
       <c r="F181">
-        <v>0.068</v>
+        <v>6.800000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4185,16 +4176,16 @@
         <v>72</v>
       </c>
       <c r="C182">
-        <v>734.2</v>
+        <v>2020.1</v>
       </c>
       <c r="D182">
-        <v>5043.4</v>
+        <v>17661.3</v>
       </c>
       <c r="E182">
-        <v>0.09</v>
+        <v>-12.9</v>
       </c>
       <c r="F182">
-        <v>0.042</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4205,16 +4196,16 @@
         <v>73</v>
       </c>
       <c r="C183">
-        <v>1686.1</v>
+        <v>830.4</v>
       </c>
       <c r="D183">
-        <v>13853.1</v>
+        <v>5861</v>
       </c>
       <c r="E183">
-        <v>-0.03</v>
+        <v>-3</v>
       </c>
       <c r="F183">
-        <v>0.08699999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4225,16 +4216,16 @@
         <v>74</v>
       </c>
       <c r="C184">
-        <v>491.5</v>
+        <v>845.6</v>
       </c>
       <c r="D184">
-        <v>4243.7</v>
+        <v>6142.9</v>
       </c>
       <c r="E184">
-        <v>-0.073</v>
+        <v>13.8</v>
       </c>
       <c r="F184">
-        <v>0.073</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4245,16 +4236,16 @@
         <v>72</v>
       </c>
       <c r="C185">
-        <v>746.1</v>
+        <v>1498</v>
       </c>
       <c r="D185">
-        <v>4250.4</v>
+        <v>19139.1</v>
       </c>
       <c r="E185">
-        <v>0.028</v>
+        <v>-9.4</v>
       </c>
       <c r="F185">
-        <v>0.045</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4265,16 +4256,16 @@
         <v>73</v>
       </c>
       <c r="C186">
-        <v>2133.1</v>
+        <v>897.7</v>
       </c>
       <c r="D186">
-        <v>11978.8</v>
+        <v>6781.6</v>
       </c>
       <c r="E186">
-        <v>0.024</v>
+        <v>4.7</v>
       </c>
       <c r="F186">
-        <v>0.102</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4285,16 +4276,16 @@
         <v>74</v>
       </c>
       <c r="C187">
-        <v>650.2</v>
+        <v>1011.2</v>
       </c>
       <c r="D187">
-        <v>3732.5</v>
+        <v>7145.9</v>
       </c>
       <c r="E187">
-        <v>0.198</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F187">
-        <v>0.092</v>
+        <v>7.200000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4305,16 +4296,16 @@
         <v>72</v>
       </c>
       <c r="C188">
-        <v>777.8</v>
+        <v>1884.1</v>
       </c>
       <c r="D188">
-        <v>3461.2</v>
+        <v>21028.6</v>
       </c>
       <c r="E188">
-        <v>0.006</v>
+        <v>10.7</v>
       </c>
       <c r="F188">
-        <v>0.03700000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4325,16 +4316,16 @@
         <v>73</v>
       </c>
       <c r="C189">
-        <v>2191.2</v>
+        <v>962.9</v>
       </c>
       <c r="D189">
-        <v>9745.9</v>
+        <v>7742.1</v>
       </c>
       <c r="E189">
-        <v>0.064</v>
+        <v>9</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4345,16 +4336,16 @@
         <v>74</v>
       </c>
       <c r="C190">
-        <v>680.6</v>
+        <v>1097</v>
       </c>
       <c r="D190">
-        <v>3073.6</v>
+        <v>8242.700000000001</v>
       </c>
       <c r="E190">
-        <v>0.198</v>
+        <v>3.1</v>
       </c>
       <c r="F190">
-        <v>0.06900000000000001</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4365,16 +4356,16 @@
         <v>72</v>
       </c>
       <c r="C191">
-        <v>771.2</v>
+        <v>1620.2</v>
       </c>
       <c r="D191">
-        <v>2615</v>
+        <v>22480.9</v>
       </c>
       <c r="E191">
-        <v>0.021</v>
+        <v>14</v>
       </c>
       <c r="F191">
-        <v>0.04099999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4385,16 +4376,16 @@
         <v>73</v>
       </c>
       <c r="C192">
-        <v>2363.6</v>
+        <v>897.1</v>
       </c>
       <c r="D192">
-        <v>7546.5</v>
+        <v>8727.6</v>
       </c>
       <c r="E192">
-        <v>0.154</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="F192">
-        <v>0.125</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4405,16 +4396,16 @@
         <v>74</v>
       </c>
       <c r="C193">
-        <v>646.8</v>
+        <v>1102.8</v>
       </c>
       <c r="D193">
-        <v>2395.9</v>
+        <v>9345.5</v>
       </c>
       <c r="E193">
-        <v>0.094</v>
+        <v>6.3</v>
       </c>
       <c r="F193">
-        <v>0.039</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4425,16 +4416,16 @@
         <v>72</v>
       </c>
       <c r="C194">
-        <v>735.7</v>
+        <v>1967.9</v>
       </c>
       <c r="D194">
-        <v>1836.8</v>
+        <v>24237.4</v>
       </c>
       <c r="E194">
-        <v>0.019</v>
+        <v>27</v>
       </c>
       <c r="F194">
-        <v>0.047</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4445,16 +4436,16 @@
         <v>73</v>
       </c>
       <c r="C195">
-        <v>2406.9</v>
+        <v>860.9</v>
       </c>
       <c r="D195">
-        <v>5199</v>
+        <v>9588.5</v>
       </c>
       <c r="E195">
-        <v>0.223</v>
+        <v>2.6</v>
       </c>
       <c r="F195">
-        <v>0.133</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4465,16 +4456,16 @@
         <v>74</v>
       </c>
       <c r="C196">
-        <v>661.1</v>
+        <v>1112.7</v>
       </c>
       <c r="D196">
-        <v>1746.2</v>
+        <v>10458.2</v>
       </c>
       <c r="E196">
-        <v>0.055</v>
+        <v>4.2</v>
       </c>
       <c r="F196">
-        <v>0.018</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4484,14 +4475,17 @@
       <c r="B197" t="s">
         <v>72</v>
       </c>
+      <c r="C197">
+        <v>2369.5</v>
+      </c>
       <c r="D197">
-        <v>1099</v>
+        <v>26598.4</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="F197">
-        <v>0.064</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4501,14 +4495,17 @@
       <c r="B198" t="s">
         <v>73</v>
       </c>
+      <c r="C198">
+        <v>899.1</v>
+      </c>
       <c r="D198">
-        <v>2788.5</v>
+        <v>10395.7</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="F198">
-        <v>0.062</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4518,14 +4515,17 @@
       <c r="B199" t="s">
         <v>74</v>
       </c>
+      <c r="C199">
+        <v>1226.5</v>
+      </c>
       <c r="D199">
-        <v>1085.9</v>
+        <v>11736.5</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="F199">
-        <v>-0.001</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/recorded_trajectories_v2/run1/claude-4-sonnet-0514/finalpool/SingleUserTurn-excel-data-transformation/workspace/Processed.xlsx
+++ b/recorded_trajectories_v2/run1/claude-4-sonnet-0514/finalpool/SingleUserTurn-excel-data-transformation/workspace/Processed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="75">
   <si>
     <t>Time</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Accumulated Growth (%)</t>
   </si>
   <si>
+    <t>2019-02</t>
+  </si>
+  <si>
     <t>2019-03</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>2019-12</t>
   </si>
   <si>
+    <t>2020-02</t>
+  </si>
+  <si>
     <t>2020-03</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>2020-12</t>
   </si>
   <si>
+    <t>2021-02</t>
+  </si>
+  <si>
     <t>2021-03</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t>2021-12</t>
   </si>
   <si>
+    <t>2022-02</t>
+  </si>
+  <si>
     <t>2022-03</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>2022-12</t>
   </si>
   <si>
+    <t>2023-02</t>
+  </si>
+  <si>
     <t>2023-03</t>
   </si>
   <si>
@@ -184,6 +199,9 @@
     <t>2023-12</t>
   </si>
   <si>
+    <t>2024-02</t>
+  </si>
+  <si>
     <t>2024-03</t>
   </si>
   <si>
@@ -214,10 +232,10 @@
     <t>2024-12</t>
   </si>
   <si>
-    <t>Air Conditioners</t>
-  </si>
-  <si>
-    <t>Household Refrigerators</t>
+    <t>Air Conditioner</t>
+  </si>
+  <si>
+    <t>Household Refrigerator</t>
   </si>
   <si>
     <t>Household Washing Machines</t>
@@ -578,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,19 +627,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2">
-        <v>2406.9</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>5199</v>
+        <v>2788.5</v>
       </c>
       <c r="E2">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.133</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -629,19 +644,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3">
-        <v>735.7</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>1836.8</v>
+        <v>1099</v>
       </c>
       <c r="E3">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.047</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -649,19 +661,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4">
-        <v>661.1</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>1746.2</v>
+        <v>1085.9</v>
       </c>
       <c r="E4">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.018</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -669,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>2363.6</v>
+        <v>2406.9</v>
       </c>
       <c r="D5">
-        <v>7546.5</v>
+        <v>5199</v>
       </c>
       <c r="E5">
-        <v>0.154</v>
+        <v>0.223</v>
       </c>
       <c r="F5">
-        <v>0.125</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -689,19 +698,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C6">
-        <v>771.2</v>
+        <v>735.7</v>
       </c>
       <c r="D6">
-        <v>2615</v>
+        <v>1836.8</v>
       </c>
       <c r="E6">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="F6">
-        <v>0.04099999999999999</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -709,19 +718,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>646.8</v>
+        <v>661.1</v>
       </c>
       <c r="D7">
-        <v>2395.9</v>
+        <v>1746.2</v>
       </c>
       <c r="E7">
-        <v>0.094</v>
+        <v>0.055</v>
       </c>
       <c r="F7">
-        <v>0.039</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -729,19 +738,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8">
-        <v>2191.2</v>
+        <v>2363.6</v>
       </c>
       <c r="D8">
-        <v>9745.9</v>
+        <v>7546.5</v>
       </c>
       <c r="E8">
-        <v>0.064</v>
+        <v>0.154</v>
       </c>
       <c r="F8">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -749,19 +758,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C9">
-        <v>777.8</v>
+        <v>771.2</v>
       </c>
       <c r="D9">
-        <v>3461.2</v>
+        <v>2615</v>
       </c>
       <c r="E9">
-        <v>0.006</v>
+        <v>0.021</v>
       </c>
       <c r="F9">
-        <v>0.03700000000000001</v>
+        <v>0.04099999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -769,19 +778,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>680.6</v>
+        <v>646.8</v>
       </c>
       <c r="D10">
-        <v>3073.6</v>
+        <v>2395.9</v>
       </c>
       <c r="E10">
-        <v>0.198</v>
+        <v>0.094</v>
       </c>
       <c r="F10">
-        <v>0.06900000000000001</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -789,19 +798,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>2133.1</v>
+        <v>2191.2</v>
       </c>
       <c r="D11">
-        <v>11978.8</v>
+        <v>9745.9</v>
       </c>
       <c r="E11">
-        <v>0.024</v>
+        <v>0.064</v>
       </c>
       <c r="F11">
-        <v>0.102</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -809,19 +818,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12">
-        <v>746.1</v>
+        <v>777.8</v>
       </c>
       <c r="D12">
-        <v>4250.4</v>
+        <v>3461.2</v>
       </c>
       <c r="E12">
-        <v>0.028</v>
+        <v>0.006</v>
       </c>
       <c r="F12">
-        <v>0.045</v>
+        <v>0.03700000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -829,19 +838,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>650.2</v>
+        <v>680.6</v>
       </c>
       <c r="D13">
-        <v>3732.5</v>
+        <v>3073.6</v>
       </c>
       <c r="E13">
         <v>0.198</v>
       </c>
       <c r="F13">
-        <v>0.092</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -849,19 +858,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C14">
-        <v>1686.1</v>
+        <v>2133.1</v>
       </c>
       <c r="D14">
-        <v>13853.1</v>
+        <v>11978.8</v>
       </c>
       <c r="E14">
-        <v>-0.03</v>
+        <v>0.024</v>
       </c>
       <c r="F14">
-        <v>0.08699999999999999</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -869,19 +878,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <v>734.2</v>
+        <v>746.1</v>
       </c>
       <c r="D15">
-        <v>5043.4</v>
+        <v>4250.4</v>
       </c>
       <c r="E15">
-        <v>0.09</v>
+        <v>0.028</v>
       </c>
       <c r="F15">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -889,19 +898,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C16">
-        <v>491.5</v>
+        <v>650.2</v>
       </c>
       <c r="D16">
-        <v>4243.7</v>
+        <v>3732.5</v>
       </c>
       <c r="E16">
-        <v>-0.073</v>
+        <v>0.198</v>
       </c>
       <c r="F16">
-        <v>0.073</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,19 +918,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C17">
-        <v>1433.2</v>
+        <v>1686.1</v>
       </c>
       <c r="D17">
-        <v>15239.5</v>
+        <v>13853.1</v>
       </c>
       <c r="E17">
-        <v>-0.029</v>
+        <v>-0.03</v>
       </c>
       <c r="F17">
-        <v>0.079</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C18">
-        <v>701.7</v>
+        <v>734.2</v>
       </c>
       <c r="D18">
-        <v>5736.5</v>
+        <v>5043.4</v>
       </c>
       <c r="E18">
-        <v>-0.052</v>
+        <v>0.09</v>
       </c>
       <c r="F18">
-        <v>0.028</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,19 +958,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C19">
-        <v>678.2</v>
+        <v>491.5</v>
       </c>
       <c r="D19">
-        <v>4917</v>
+        <v>4243.7</v>
       </c>
       <c r="E19">
-        <v>0.049</v>
+        <v>-0.073</v>
       </c>
       <c r="F19">
-        <v>0.068</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,19 +978,19 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C20">
-        <v>1783.9</v>
+        <v>1433.2</v>
       </c>
       <c r="D20">
-        <v>17005.4</v>
+        <v>15239.5</v>
       </c>
       <c r="E20">
-        <v>0.106</v>
+        <v>-0.029</v>
       </c>
       <c r="F20">
-        <v>0.064</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,19 +998,19 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C21">
-        <v>736.7</v>
+        <v>701.7</v>
       </c>
       <c r="D21">
-        <v>6427.3</v>
+        <v>5736.5</v>
       </c>
       <c r="E21">
-        <v>0.039</v>
+        <v>-0.052</v>
       </c>
       <c r="F21">
-        <v>0.043</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,19 +1018,19 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C22">
-        <v>720.5</v>
+        <v>678.2</v>
       </c>
       <c r="D22">
-        <v>5637.5</v>
+        <v>4917</v>
       </c>
       <c r="E22">
-        <v>0.076</v>
+        <v>0.049</v>
       </c>
       <c r="F22">
-        <v>0.075</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C23">
-        <v>1332.2</v>
+        <v>1783.9</v>
       </c>
       <c r="D23">
-        <v>18331.7</v>
+        <v>17005.4</v>
       </c>
       <c r="E23">
-        <v>-0.021</v>
+        <v>0.106</v>
       </c>
       <c r="F23">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,19 +1058,19 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C24">
-        <v>704.6</v>
+        <v>736.7</v>
       </c>
       <c r="D24">
-        <v>7110.9</v>
+        <v>6427.3</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
+        <v>0.039</v>
       </c>
       <c r="F24">
-        <v>0.038</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,19 +1078,19 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C25">
-        <v>761.5</v>
+        <v>720.5</v>
       </c>
       <c r="D25">
-        <v>6341.5</v>
+        <v>5637.5</v>
       </c>
       <c r="E25">
-        <v>0.135</v>
+        <v>0.076</v>
       </c>
       <c r="F25">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,19 +1098,19 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C26">
-        <v>1545.5</v>
+        <v>1332.2</v>
       </c>
       <c r="D26">
-        <v>19956.1</v>
+        <v>18331.7</v>
       </c>
       <c r="E26">
-        <v>0.012</v>
+        <v>-0.021</v>
       </c>
       <c r="F26">
-        <v>0.058</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,19 +1118,19 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C27">
-        <v>722.2</v>
+        <v>704.6</v>
       </c>
       <c r="D27">
-        <v>7657.4</v>
+        <v>7110.9</v>
       </c>
       <c r="E27">
-        <v>0.077</v>
+        <v>0.03</v>
       </c>
       <c r="F27">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,19 +1138,19 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C28">
-        <v>720.9</v>
+        <v>761.5</v>
       </c>
       <c r="D28">
-        <v>6710</v>
+        <v>6341.5</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>0.135</v>
       </c>
       <c r="F28">
-        <v>0.101</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,19 +1158,19 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29">
-        <v>2034.9</v>
+        <v>1545.5</v>
       </c>
       <c r="D29">
-        <v>21866.2</v>
+        <v>19956.1</v>
       </c>
       <c r="E29">
-        <v>0.109</v>
+        <v>0.012</v>
       </c>
       <c r="F29">
-        <v>0.065</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,19 +1178,19 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C30">
-        <v>690.2</v>
+        <v>722.2</v>
       </c>
       <c r="D30">
-        <v>7904.3</v>
+        <v>7657.4</v>
       </c>
       <c r="E30">
-        <v>0.219</v>
+        <v>0.077</v>
       </c>
       <c r="F30">
-        <v>0.081</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,19 +1198,19 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C31">
-        <v>726.5</v>
+        <v>720.9</v>
       </c>
       <c r="D31">
-        <v>7433</v>
+        <v>6710</v>
       </c>
       <c r="E31">
-        <v>0.09699999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F31">
-        <v>0.098</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,19 +1218,19 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C32">
-        <v>1940.3</v>
+        <v>2034.9</v>
       </c>
       <c r="D32">
-        <v>3688.1</v>
+        <v>21866.2</v>
       </c>
       <c r="E32">
-        <v>-0.188</v>
+        <v>0.109</v>
       </c>
       <c r="F32">
-        <v>-0.279</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1229,19 +1238,19 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C33">
-        <v>726.6</v>
+        <v>690.2</v>
       </c>
       <c r="D33">
-        <v>1373.1</v>
+        <v>7904.3</v>
       </c>
       <c r="E33">
-        <v>0.04</v>
+        <v>0.219</v>
       </c>
       <c r="F33">
-        <v>-0.198</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1249,19 +1258,19 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C34">
-        <v>640</v>
+        <v>726.5</v>
       </c>
       <c r="D34">
-        <v>1416.2</v>
+        <v>7433</v>
       </c>
       <c r="E34">
-        <v>0.005</v>
+        <v>0.09699999999999999</v>
       </c>
       <c r="F34">
-        <v>-0.119</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1269,19 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35">
-        <v>1915.9</v>
+        <v>72</v>
       </c>
       <c r="D35">
-        <v>5581.5</v>
+        <v>1628.5</v>
       </c>
       <c r="E35">
-        <v>-0.173</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.248</v>
+        <v>-0.402</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1289,19 +1295,16 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36">
-        <v>701.5</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>2053.3</v>
+        <v>667</v>
       </c>
       <c r="E36">
-        <v>-0.033</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.165</v>
+        <v>-0.374</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1309,19 +1312,16 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37">
-        <v>555.7</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>1979.9</v>
+        <v>775.7</v>
       </c>
       <c r="E37">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.111</v>
+        <v>-0.202</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1329,19 +1329,19 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C38">
-        <v>1942.8</v>
+        <v>1940.3</v>
       </c>
       <c r="D38">
-        <v>7798.8</v>
+        <v>3688.1</v>
       </c>
       <c r="E38">
-        <v>-0.147</v>
+        <v>-0.188</v>
       </c>
       <c r="F38">
-        <v>-0.231</v>
+        <v>-0.279</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1349,19 +1349,19 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C39">
-        <v>776.7</v>
+        <v>726.6</v>
       </c>
       <c r="D39">
-        <v>2845.3</v>
+        <v>1373.1</v>
       </c>
       <c r="E39">
-        <v>0.07400000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>-0.127</v>
+        <v>-0.198</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1369,19 +1369,19 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C40">
-        <v>608.3</v>
+        <v>640</v>
       </c>
       <c r="D40">
-        <v>2583.4</v>
+        <v>1416.2</v>
       </c>
       <c r="E40">
-        <v>-0.08199999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="F40">
-        <v>-0.106</v>
+        <v>-0.119</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1389,19 +1389,19 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C41">
-        <v>2490.3</v>
+        <v>1915.9</v>
       </c>
       <c r="D41">
-        <v>10414.9</v>
+        <v>5581.5</v>
       </c>
       <c r="E41">
-        <v>0.12</v>
+        <v>-0.173</v>
       </c>
       <c r="F41">
-        <v>-0.164</v>
+        <v>-0.248</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1409,19 +1409,19 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C42">
-        <v>887.4</v>
+        <v>701.5</v>
       </c>
       <c r="D42">
-        <v>3759.3</v>
+        <v>2053.3</v>
       </c>
       <c r="E42">
-        <v>0.217</v>
+        <v>-0.033</v>
       </c>
       <c r="F42">
-        <v>-0.06900000000000001</v>
+        <v>-0.165</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1429,19 +1429,19 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C43">
-        <v>655.5</v>
+        <v>555.7</v>
       </c>
       <c r="D43">
-        <v>3260.2</v>
+        <v>1979.9</v>
       </c>
       <c r="E43">
-        <v>0.053</v>
+        <v>-0.1</v>
       </c>
       <c r="F43">
-        <v>-0.07200000000000001</v>
+        <v>-0.111</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1449,19 +1449,19 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C44">
-        <v>1851.2</v>
+        <v>1942.8</v>
       </c>
       <c r="D44">
-        <v>12353</v>
+        <v>7798.8</v>
       </c>
       <c r="E44">
-        <v>0.06</v>
+        <v>-0.147</v>
       </c>
       <c r="F44">
-        <v>-0.14</v>
+        <v>-0.231</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1469,19 +1469,19 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C45">
-        <v>914.7</v>
+        <v>776.7</v>
       </c>
       <c r="D45">
-        <v>4691.3</v>
+        <v>2845.3</v>
       </c>
       <c r="E45">
-        <v>0.297</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="F45">
-        <v>-0.02</v>
+        <v>-0.127</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1489,19 +1489,19 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C46">
-        <v>686.2</v>
+        <v>608.3</v>
       </c>
       <c r="D46">
-        <v>3984.9</v>
+        <v>2583.4</v>
       </c>
       <c r="E46">
-        <v>0.373</v>
+        <v>-0.08199999999999999</v>
       </c>
       <c r="F46">
-        <v>-0.026</v>
+        <v>-0.106</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1509,19 +1509,19 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C47">
-        <v>1533</v>
+        <v>2490.3</v>
       </c>
       <c r="D47">
-        <v>13887.9</v>
+        <v>10414.9</v>
       </c>
       <c r="E47">
-        <v>0.005</v>
+        <v>0.12</v>
       </c>
       <c r="F47">
-        <v>-0.122</v>
+        <v>-0.164</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1529,19 +1529,19 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C48">
-        <v>908.5</v>
+        <v>887.4</v>
       </c>
       <c r="D48">
-        <v>5537.2</v>
+        <v>3759.3</v>
       </c>
       <c r="E48">
-        <v>0.285</v>
+        <v>0.217</v>
       </c>
       <c r="F48">
-        <v>-0.019</v>
+        <v>-0.06900000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1549,19 +1549,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C49">
-        <v>749.2</v>
+        <v>655.5</v>
       </c>
       <c r="D49">
-        <v>4733.9</v>
+        <v>3260.2</v>
       </c>
       <c r="E49">
-        <v>0.09300000000000001</v>
+        <v>0.053</v>
       </c>
       <c r="F49">
-        <v>-0.014</v>
+        <v>-0.07200000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1569,19 +1569,19 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C50">
-        <v>1714.1</v>
+        <v>1851.2</v>
       </c>
       <c r="D50">
-        <v>15602.9</v>
+        <v>12353</v>
       </c>
       <c r="E50">
-        <v>-0.08500000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
-        <v>-0.117</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1589,19 +1589,19 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C51">
-        <v>935.8</v>
+        <v>914.7</v>
       </c>
       <c r="D51">
-        <v>6476.1</v>
+        <v>4691.3</v>
       </c>
       <c r="E51">
-        <v>0.282</v>
+        <v>0.297</v>
       </c>
       <c r="F51">
-        <v>0.017</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1609,19 +1609,19 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52">
-        <v>799.2</v>
+        <v>686.2</v>
       </c>
       <c r="D52">
-        <v>5533.1</v>
+        <v>3984.9</v>
       </c>
       <c r="E52">
-        <v>0.133</v>
+        <v>0.373</v>
       </c>
       <c r="F52">
-        <v>0.005</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1629,19 +1629,19 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C53">
-        <v>1448.9</v>
+        <v>1533</v>
       </c>
       <c r="D53">
-        <v>17046.6</v>
+        <v>13887.9</v>
       </c>
       <c r="E53">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="F53">
-        <v>-0.107</v>
+        <v>-0.122</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1649,19 +1649,19 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C54">
-        <v>879.6</v>
+        <v>908.5</v>
       </c>
       <c r="D54">
-        <v>7381.7</v>
+        <v>5537.2</v>
       </c>
       <c r="E54">
-        <v>0.258</v>
+        <v>0.285</v>
       </c>
       <c r="F54">
-        <v>0.04</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1669,19 +1669,19 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C55">
-        <v>840.6</v>
+        <v>749.2</v>
       </c>
       <c r="D55">
-        <v>6373.8</v>
+        <v>4733.9</v>
       </c>
       <c r="E55">
-        <v>0.102</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="F55">
-        <v>0.016</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1689,19 +1689,19 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C56">
-        <v>1771.6</v>
+        <v>1714.1</v>
       </c>
       <c r="D56">
-        <v>18929.2</v>
+        <v>15602.9</v>
       </c>
       <c r="E56">
-        <v>0.055</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="F56">
-        <v>-0.08800000000000001</v>
+        <v>-0.117</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1709,19 +1709,19 @@
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C57">
-        <v>898.9</v>
+        <v>935.8</v>
       </c>
       <c r="D57">
-        <v>8260.5</v>
+        <v>6476.1</v>
       </c>
       <c r="E57">
-        <v>0.225</v>
+        <v>0.282</v>
       </c>
       <c r="F57">
-        <v>0.063</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1729,19 +1729,19 @@
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C58">
-        <v>856.6</v>
+        <v>799.2</v>
       </c>
       <c r="D58">
-        <v>7228.5</v>
+        <v>5533.1</v>
       </c>
       <c r="E58">
-        <v>0.131</v>
+        <v>0.133</v>
       </c>
       <c r="F58">
-        <v>0.036</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1749,19 +1749,19 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C59">
-        <v>2152.5</v>
+        <v>1448.9</v>
       </c>
       <c r="D59">
-        <v>21064.6</v>
+        <v>17046.6</v>
       </c>
       <c r="E59">
-        <v>-0.029</v>
+        <v>0.002</v>
       </c>
       <c r="F59">
-        <v>-0.083</v>
+        <v>-0.107</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1769,19 +1769,19 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C60">
-        <v>796.4</v>
+        <v>879.6</v>
       </c>
       <c r="D60">
-        <v>9014.700000000001</v>
+        <v>7381.7</v>
       </c>
       <c r="E60">
-        <v>0.081</v>
+        <v>0.258</v>
       </c>
       <c r="F60">
-        <v>0.08400000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1789,19 +1789,19 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C61">
-        <v>806.4</v>
+        <v>840.6</v>
       </c>
       <c r="D61">
-        <v>8041.9</v>
+        <v>6373.8</v>
       </c>
       <c r="E61">
-        <v>0.051</v>
+        <v>0.102</v>
       </c>
       <c r="F61">
-        <v>0.039</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1809,19 +1809,19 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C62">
-        <v>2591.6</v>
+        <v>1771.6</v>
       </c>
       <c r="D62">
-        <v>5595.3</v>
+        <v>18929.2</v>
       </c>
       <c r="E62">
-        <v>0.32</v>
+        <v>0.055</v>
       </c>
       <c r="F62">
-        <v>0.498</v>
+        <v>-0.08800000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1829,19 +1829,19 @@
         <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C63">
-        <v>946.6</v>
+        <v>898.9</v>
       </c>
       <c r="D63">
-        <v>2157.8</v>
+        <v>8260.5</v>
       </c>
       <c r="E63">
-        <v>0.289</v>
+        <v>0.225</v>
       </c>
       <c r="F63">
-        <v>0.546</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1849,19 +1849,19 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C64">
-        <v>831.2</v>
+        <v>856.6</v>
       </c>
       <c r="D64">
-        <v>2144.7</v>
+        <v>7228.5</v>
       </c>
       <c r="E64">
-        <v>0.294</v>
+        <v>0.131</v>
       </c>
       <c r="F64">
-        <v>0.507</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1869,19 +1869,19 @@
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C65">
-        <v>2421</v>
+        <v>2152.5</v>
       </c>
       <c r="D65">
-        <v>7939.6</v>
+        <v>21064.6</v>
       </c>
       <c r="E65">
-        <v>0.225</v>
+        <v>-0.029</v>
       </c>
       <c r="F65">
-        <v>0.395</v>
+        <v>-0.083</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1889,19 +1889,19 @@
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C66">
-        <v>772.9</v>
+        <v>796.4</v>
       </c>
       <c r="D66">
-        <v>2944.9</v>
+        <v>9014.700000000001</v>
       </c>
       <c r="E66">
-        <v>0.08500000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="F66">
-        <v>0.409</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1909,19 +1909,19 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C67">
-        <v>772</v>
+        <v>806.4</v>
       </c>
       <c r="D67">
-        <v>2916.7</v>
+        <v>8041.9</v>
       </c>
       <c r="E67">
-        <v>0.342</v>
+        <v>0.051</v>
       </c>
       <c r="F67">
-        <v>0.448</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1929,19 +1929,16 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68">
-        <v>2205.8</v>
+        <v>72</v>
       </c>
       <c r="D68">
-        <v>10175.9</v>
+        <v>2940.4</v>
       </c>
       <c r="E68">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.334</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1949,19 +1946,16 @@
         <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>748.7</v>
+        <v>73</v>
       </c>
       <c r="D69">
-        <v>3711.6</v>
+        <v>1210.7</v>
       </c>
       <c r="E69">
-        <v>-0.042</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.292</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1969,19 +1963,16 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70">
-        <v>703.2</v>
+        <v>74</v>
       </c>
       <c r="D70">
-        <v>3618.4</v>
+        <v>1313.5</v>
       </c>
       <c r="E70">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.373</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1989,19 +1980,19 @@
         <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C71">
-        <v>2167</v>
+        <v>2591.6</v>
       </c>
       <c r="D71">
-        <v>12328.3</v>
+        <v>5595.3</v>
       </c>
       <c r="E71">
-        <v>-0.121</v>
+        <v>0.32</v>
       </c>
       <c r="F71">
-        <v>0.21</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2009,19 +2000,19 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C72">
-        <v>742.5</v>
+        <v>946.6</v>
       </c>
       <c r="D72">
-        <v>4434.6</v>
+        <v>2157.8</v>
       </c>
       <c r="E72">
-        <v>-0.154</v>
+        <v>0.289</v>
       </c>
       <c r="F72">
-        <v>0.188</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2029,19 +2020,19 @@
         <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C73">
-        <v>664</v>
+        <v>831.2</v>
       </c>
       <c r="D73">
-        <v>4293.9</v>
+        <v>2144.7</v>
       </c>
       <c r="E73">
-        <v>0.13</v>
+        <v>0.294</v>
       </c>
       <c r="F73">
-        <v>0.335</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2049,19 +2040,19 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C74">
-        <v>1801.8</v>
+        <v>2421</v>
       </c>
       <c r="D74">
-        <v>13768.6</v>
+        <v>7939.6</v>
       </c>
       <c r="E74">
-        <v>0.028</v>
+        <v>0.225</v>
       </c>
       <c r="F74">
-        <v>0.173</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2069,19 +2060,19 @@
         <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C75">
-        <v>741</v>
+        <v>772.9</v>
       </c>
       <c r="D75">
-        <v>5177.3</v>
+        <v>2944.9</v>
       </c>
       <c r="E75">
-        <v>-0.183</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F75">
-        <v>0.113</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2089,19 +2080,19 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C76">
-        <v>623.8</v>
+        <v>772</v>
       </c>
       <c r="D76">
-        <v>4917.7</v>
+        <v>2916.7</v>
       </c>
       <c r="E76">
-        <v>0.042</v>
+        <v>0.342</v>
       </c>
       <c r="F76">
-        <v>0.29</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2109,19 +2100,19 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>1491.2</v>
+        <v>2205.8</v>
       </c>
       <c r="D77">
-        <v>15219.8</v>
+        <v>10175.9</v>
       </c>
       <c r="E77">
-        <v>0.043</v>
+        <v>0.14</v>
       </c>
       <c r="F77">
-        <v>0.156</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2129,19 +2120,19 @@
         <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C78">
-        <v>736.4</v>
+        <v>748.7</v>
       </c>
       <c r="D78">
-        <v>5913.5</v>
+        <v>3711.6</v>
       </c>
       <c r="E78">
-        <v>-0.19</v>
+        <v>-0.042</v>
       </c>
       <c r="F78">
-        <v>0.067</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2149,19 +2140,19 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C79">
-        <v>673.8</v>
+        <v>703.2</v>
       </c>
       <c r="D79">
-        <v>5591.5</v>
+        <v>3618.4</v>
       </c>
       <c r="E79">
-        <v>-0.1</v>
+        <v>0.121</v>
       </c>
       <c r="F79">
-        <v>0.226</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2169,19 +2160,19 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C80">
-        <v>1508.1</v>
+        <v>2167</v>
       </c>
       <c r="D80">
-        <v>16659</v>
+        <v>12328.3</v>
       </c>
       <c r="E80">
-        <v>-0.06900000000000001</v>
+        <v>-0.121</v>
       </c>
       <c r="F80">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2189,19 +2180,19 @@
         <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C81">
-        <v>763.8</v>
+        <v>742.5</v>
       </c>
       <c r="D81">
-        <v>6620.1</v>
+        <v>4434.6</v>
       </c>
       <c r="E81">
-        <v>-0.185</v>
+        <v>-0.154</v>
       </c>
       <c r="F81">
-        <v>0.021</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2209,19 +2200,19 @@
         <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C82">
-        <v>699.5</v>
+        <v>664</v>
       </c>
       <c r="D82">
-        <v>6282.9</v>
+        <v>4293.9</v>
       </c>
       <c r="E82">
-        <v>-0.122</v>
+        <v>0.13</v>
       </c>
       <c r="F82">
-        <v>0.173</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2229,19 +2220,19 @@
         <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C83">
-        <v>1454.9</v>
+        <v>1801.8</v>
       </c>
       <c r="D83">
-        <v>18092.4</v>
+        <v>13768.6</v>
       </c>
       <c r="E83">
-        <v>0.06</v>
+        <v>0.028</v>
       </c>
       <c r="F83">
-        <v>0.123</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2249,19 +2240,19 @@
         <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C84">
-        <v>763.6</v>
+        <v>741</v>
       </c>
       <c r="D84">
-        <v>7412.2</v>
+        <v>5177.3</v>
       </c>
       <c r="E84">
-        <v>-0.135</v>
+        <v>-0.183</v>
       </c>
       <c r="F84">
-        <v>0.003</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2269,19 +2260,19 @@
         <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C85">
-        <v>766.8</v>
+        <v>623.8</v>
       </c>
       <c r="D85">
-        <v>6968.5</v>
+        <v>4917.7</v>
       </c>
       <c r="E85">
-        <v>-0.08699999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="F85">
-        <v>0.124</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2289,19 +2280,19 @@
         <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C86">
-        <v>1662.8</v>
+        <v>1491.2</v>
       </c>
       <c r="D86">
-        <v>19741.4</v>
+        <v>15219.8</v>
       </c>
       <c r="E86">
-        <v>0.03700000000000001</v>
+        <v>0.043</v>
       </c>
       <c r="F86">
-        <v>0.114</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2309,19 +2300,19 @@
         <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C87">
-        <v>808.5</v>
+        <v>736.4</v>
       </c>
       <c r="D87">
-        <v>8253.299999999999</v>
+        <v>5913.5</v>
       </c>
       <c r="E87">
-        <v>-0.103</v>
+        <v>-0.19</v>
       </c>
       <c r="F87">
-        <v>-0.002</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2329,19 +2320,19 @@
         <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C88">
-        <v>843.8</v>
+        <v>673.8</v>
       </c>
       <c r="D88">
-        <v>7833</v>
+        <v>5591.5</v>
       </c>
       <c r="E88">
-        <v>-0.015</v>
+        <v>-0.1</v>
       </c>
       <c r="F88">
-        <v>0.111</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2349,19 +2340,19 @@
         <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>1963.5</v>
+        <v>1508.1</v>
       </c>
       <c r="D89">
-        <v>21835.7</v>
+        <v>16659</v>
       </c>
       <c r="E89">
-        <v>-0.017</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="F89">
-        <v>0.094</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2369,19 +2360,19 @@
         <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C90">
-        <v>757.8</v>
+        <v>763.8</v>
       </c>
       <c r="D90">
-        <v>8992.1</v>
+        <v>6620.1</v>
       </c>
       <c r="E90">
-        <v>-0.052</v>
+        <v>-0.185</v>
       </c>
       <c r="F90">
-        <v>-0.004</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2389,19 +2380,19 @@
         <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C91">
-        <v>785.6</v>
+        <v>699.5</v>
       </c>
       <c r="D91">
-        <v>8618.5</v>
+        <v>6282.9</v>
       </c>
       <c r="E91">
-        <v>-0.027</v>
+        <v>-0.122</v>
       </c>
       <c r="F91">
-        <v>0.095</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2409,19 +2400,19 @@
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C92">
-        <v>2552.5</v>
+        <v>1454.9</v>
       </c>
       <c r="D92">
-        <v>5446.7</v>
+        <v>18092.4</v>
       </c>
       <c r="E92">
-        <v>0.005</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>0.006999999999999999</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2429,19 +2420,19 @@
         <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C93">
-        <v>867.1</v>
+        <v>763.6</v>
       </c>
       <c r="D93">
-        <v>2065.7</v>
+        <v>7412.2</v>
       </c>
       <c r="E93">
-        <v>-0.1</v>
+        <v>-0.135</v>
       </c>
       <c r="F93">
-        <v>-0.059</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2449,19 +2440,19 @@
         <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C94">
-        <v>761</v>
+        <v>766.8</v>
       </c>
       <c r="D94">
-        <v>2141.8</v>
+        <v>6968.5</v>
       </c>
       <c r="E94">
-        <v>-0.08400000000000001</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="F94">
-        <v>-0.001</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2469,19 +2460,19 @@
         <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C95">
-        <v>2279.2</v>
+        <v>1662.8</v>
       </c>
       <c r="D95">
-        <v>7742.9</v>
+        <v>19741.4</v>
       </c>
       <c r="E95">
-        <v>-0.04</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="F95">
-        <v>-0.006999999999999999</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2489,19 +2480,19 @@
         <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C96">
-        <v>652.4</v>
+        <v>808.5</v>
       </c>
       <c r="D96">
-        <v>2724.9</v>
+        <v>8253.299999999999</v>
       </c>
       <c r="E96">
-        <v>-0.158</v>
+        <v>-0.103</v>
       </c>
       <c r="F96">
-        <v>-0.075</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2509,19 +2500,19 @@
         <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C97">
-        <v>649.9</v>
+        <v>843.8</v>
       </c>
       <c r="D97">
-        <v>2792.4</v>
+        <v>7833</v>
       </c>
       <c r="E97">
-        <v>-0.158</v>
+        <v>-0.015</v>
       </c>
       <c r="F97">
-        <v>-0.043</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2529,19 +2520,19 @@
         <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C98">
-        <v>2182.9</v>
+        <v>1963.5</v>
       </c>
       <c r="D98">
-        <v>9933.5</v>
+        <v>21835.7</v>
       </c>
       <c r="E98">
-        <v>0.001</v>
+        <v>-0.017</v>
       </c>
       <c r="F98">
-        <v>-0.008</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2549,19 +2540,19 @@
         <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C99">
-        <v>667</v>
+        <v>757.8</v>
       </c>
       <c r="D99">
-        <v>3401</v>
+        <v>8992.1</v>
       </c>
       <c r="E99">
-        <v>-0.115</v>
+        <v>-0.052</v>
       </c>
       <c r="F99">
-        <v>-0.081</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2569,19 +2560,19 @@
         <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C100">
-        <v>679.5</v>
+        <v>785.6</v>
       </c>
       <c r="D100">
-        <v>3471.7</v>
+        <v>8618.5</v>
       </c>
       <c r="E100">
-        <v>-0.033</v>
+        <v>-0.027</v>
       </c>
       <c r="F100">
-        <v>-0.04099999999999999</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2589,19 +2580,16 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101">
-        <v>2221.4</v>
+        <v>72</v>
       </c>
       <c r="D101">
-        <v>12248.9</v>
+        <v>2925.9</v>
       </c>
       <c r="E101">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.011</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2609,19 +2597,16 @@
         <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102">
-        <v>734.4</v>
+        <v>73</v>
       </c>
       <c r="D102">
-        <v>4164.2</v>
+        <v>1194</v>
       </c>
       <c r="E102">
-        <v>-0.008</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>-0.062</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2629,19 +2614,16 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103">
-        <v>660.6</v>
+        <v>74</v>
       </c>
       <c r="D103">
-        <v>4113.3</v>
+        <v>1380.3</v>
       </c>
       <c r="E103">
-        <v>-0.006999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>-0.04099999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2649,19 +2631,19 @@
         <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C104">
-        <v>1829.9</v>
+        <v>2552.5</v>
       </c>
       <c r="D104">
-        <v>14078.8</v>
+        <v>5446.7</v>
       </c>
       <c r="E104">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="F104">
-        <v>0.011</v>
+        <v>0.006999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2669,16 +2651,16 @@
         <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C105">
-        <v>728.8</v>
+        <v>867.1</v>
       </c>
       <c r="D105">
-        <v>4881.7</v>
+        <v>2065.7</v>
       </c>
       <c r="E105">
-        <v>-0.021</v>
+        <v>-0.1</v>
       </c>
       <c r="F105">
         <v>-0.059</v>
@@ -2689,19 +2671,19 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C106">
-        <v>657.7</v>
+        <v>761</v>
       </c>
       <c r="D106">
-        <v>4769</v>
+        <v>2141.8</v>
       </c>
       <c r="E106">
-        <v>0.05599999999999999</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="F106">
-        <v>-0.029</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2709,19 +2691,19 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C107">
-        <v>1607.2</v>
+        <v>2279.2</v>
       </c>
       <c r="D107">
-        <v>15722.1</v>
+        <v>7742.9</v>
       </c>
       <c r="E107">
-        <v>0.061</v>
+        <v>-0.04</v>
       </c>
       <c r="F107">
-        <v>0.019</v>
+        <v>-0.006999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2729,19 +2711,19 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C108">
-        <v>702.3</v>
+        <v>652.4</v>
       </c>
       <c r="D108">
-        <v>5591</v>
+        <v>2724.9</v>
       </c>
       <c r="E108">
-        <v>-0.055</v>
+        <v>-0.158</v>
       </c>
       <c r="F108">
-        <v>-0.057</v>
+        <v>-0.075</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2749,19 +2731,19 @@
         <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C109">
-        <v>690.5</v>
+        <v>649.9</v>
       </c>
       <c r="D109">
-        <v>5460.5</v>
+        <v>2792.4</v>
       </c>
       <c r="E109">
-        <v>0.025</v>
+        <v>-0.158</v>
       </c>
       <c r="F109">
-        <v>-0.023</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2769,19 +2751,19 @@
         <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C110">
-        <v>1858</v>
+        <v>2182.9</v>
       </c>
       <c r="D110">
-        <v>17491.5</v>
+        <v>9933.5</v>
       </c>
       <c r="E110">
-        <v>0.209</v>
+        <v>0.001</v>
       </c>
       <c r="F110">
-        <v>0.035</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2789,19 +2771,19 @@
         <v>42</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C111">
-        <v>799.5</v>
+        <v>667</v>
       </c>
       <c r="D111">
-        <v>6433.1</v>
+        <v>3401</v>
       </c>
       <c r="E111">
-        <v>0.046</v>
+        <v>-0.115</v>
       </c>
       <c r="F111">
-        <v>-0.031</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2809,19 +2791,19 @@
         <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C112">
-        <v>870.3</v>
+        <v>679.5</v>
       </c>
       <c r="D112">
-        <v>6424.9</v>
+        <v>3471.7</v>
       </c>
       <c r="E112">
-        <v>0.244</v>
+        <v>-0.033</v>
       </c>
       <c r="F112">
-        <v>0.023</v>
+        <v>-0.04099999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2829,19 +2811,19 @@
         <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C113">
-        <v>1443.2</v>
+        <v>2221.4</v>
       </c>
       <c r="D113">
-        <v>18959.5</v>
+        <v>12248.9</v>
       </c>
       <c r="E113">
-        <v>-0.033</v>
+        <v>0.044</v>
       </c>
       <c r="F113">
-        <v>0.032</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2849,19 +2831,19 @@
         <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C114">
-        <v>690</v>
+        <v>734.4</v>
       </c>
       <c r="D114">
-        <v>7159</v>
+        <v>4164.2</v>
       </c>
       <c r="E114">
-        <v>-0.09699999999999999</v>
+        <v>-0.008</v>
       </c>
       <c r="F114">
-        <v>-0.033</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2869,19 +2851,19 @@
         <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C115">
-        <v>880.6</v>
+        <v>660.6</v>
       </c>
       <c r="D115">
-        <v>7318</v>
+        <v>4113.3</v>
       </c>
       <c r="E115">
-        <v>0.129</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="F115">
-        <v>0.03700000000000001</v>
+        <v>-0.04099999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2889,19 +2871,19 @@
         <v>44</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C116">
-        <v>1513.2</v>
+        <v>1829.9</v>
       </c>
       <c r="D116">
-        <v>20449.4</v>
+        <v>14078.8</v>
       </c>
       <c r="E116">
-        <v>-0.107</v>
+        <v>0.006</v>
       </c>
       <c r="F116">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2909,19 +2891,19 @@
         <v>44</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C117">
-        <v>758.6</v>
+        <v>728.8</v>
       </c>
       <c r="D117">
-        <v>7917.5</v>
+        <v>4881.7</v>
       </c>
       <c r="E117">
-        <v>-0.07000000000000001</v>
+        <v>-0.021</v>
       </c>
       <c r="F117">
-        <v>-0.03700000000000001</v>
+        <v>-0.059</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2929,19 +2911,19 @@
         <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C118">
-        <v>953.1</v>
+        <v>657.7</v>
       </c>
       <c r="D118">
-        <v>8271.1</v>
+        <v>4769</v>
       </c>
       <c r="E118">
-        <v>0.129</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="F118">
-        <v>0.045</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2949,19 +2931,19 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C119">
-        <v>1770.5</v>
+        <v>1607.2</v>
       </c>
       <c r="D119">
-        <v>22247.3</v>
+        <v>15722.1</v>
       </c>
       <c r="E119">
-        <v>-0.099</v>
+        <v>0.061</v>
       </c>
       <c r="F119">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2969,19 +2951,19 @@
         <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C120">
-        <v>745.1</v>
+        <v>702.3</v>
       </c>
       <c r="D120">
-        <v>8664.4</v>
+        <v>5591</v>
       </c>
       <c r="E120">
-        <v>-0.05</v>
+        <v>-0.055</v>
       </c>
       <c r="F120">
-        <v>-0.036</v>
+        <v>-0.057</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2989,19 +2971,19 @@
         <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C121">
-        <v>836.4</v>
+        <v>690.5</v>
       </c>
       <c r="D121">
-        <v>9106.299999999999</v>
+        <v>5460.5</v>
       </c>
       <c r="E121">
-        <v>0.05400000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="F121">
-        <v>0.046</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3009,19 +2991,19 @@
         <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C122">
-        <v>2930.7</v>
+        <v>1858</v>
       </c>
       <c r="D122">
-        <v>6260.1</v>
+        <v>17491.5</v>
       </c>
       <c r="E122">
-        <v>0.132</v>
+        <v>0.209</v>
       </c>
       <c r="F122">
-        <v>0.126</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3029,19 +3011,19 @@
         <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C123">
-        <v>936.3</v>
+        <v>799.5</v>
       </c>
       <c r="D123">
-        <v>2226.6</v>
+        <v>6433.1</v>
       </c>
       <c r="E123">
-        <v>0.09</v>
+        <v>0.046</v>
       </c>
       <c r="F123">
-        <v>0.08400000000000001</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3049,19 +3031,19 @@
         <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C124">
-        <v>907</v>
+        <v>870.3</v>
       </c>
       <c r="D124">
-        <v>2295.3</v>
+        <v>6424.9</v>
       </c>
       <c r="E124">
-        <v>0.188</v>
+        <v>0.244</v>
       </c>
       <c r="F124">
-        <v>0.06900000000000001</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3069,19 +3051,19 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C125">
-        <v>2586.9</v>
+        <v>1443.2</v>
       </c>
       <c r="D125">
-        <v>8869.5</v>
+        <v>18959.5</v>
       </c>
       <c r="E125">
-        <v>0.121</v>
+        <v>-0.033</v>
       </c>
       <c r="F125">
-        <v>0.122</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3089,19 +3071,19 @@
         <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C126">
-        <v>840.9</v>
+        <v>690</v>
       </c>
       <c r="D126">
-        <v>3009.4</v>
+        <v>7159</v>
       </c>
       <c r="E126">
-        <v>0.297</v>
+        <v>-0.09699999999999999</v>
       </c>
       <c r="F126">
-        <v>0.11</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3109,19 +3091,19 @@
         <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C127">
-        <v>920.9</v>
+        <v>880.6</v>
       </c>
       <c r="D127">
-        <v>3211.4</v>
+        <v>7318</v>
       </c>
       <c r="E127">
-        <v>0.416</v>
+        <v>0.129</v>
       </c>
       <c r="F127">
-        <v>0.15</v>
+        <v>0.03700000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3129,19 +3111,19 @@
         <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C128">
-        <v>2606.3</v>
+        <v>1513.2</v>
       </c>
       <c r="D128">
-        <v>11425</v>
+        <v>20449.4</v>
       </c>
       <c r="E128">
-        <v>0.183</v>
+        <v>-0.107</v>
       </c>
       <c r="F128">
-        <v>0.142</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3149,19 +3131,19 @@
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C129">
-        <v>850</v>
+        <v>758.6</v>
       </c>
       <c r="D129">
-        <v>3857.9</v>
+        <v>7917.5</v>
       </c>
       <c r="E129">
-        <v>0.284</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F129">
-        <v>0.124</v>
+        <v>-0.03700000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3169,19 +3151,19 @@
         <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C130">
-        <v>870.5</v>
+        <v>953.1</v>
       </c>
       <c r="D130">
-        <v>4082.5</v>
+        <v>8271.1</v>
       </c>
       <c r="E130">
-        <v>0.294</v>
+        <v>0.129</v>
       </c>
       <c r="F130">
-        <v>0.189</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3189,19 +3171,19 @@
         <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C131">
-        <v>2637.6</v>
+        <v>1770.5</v>
       </c>
       <c r="D131">
-        <v>14059.9</v>
+        <v>22247.3</v>
       </c>
       <c r="E131">
-        <v>0.252</v>
+        <v>-0.099</v>
       </c>
       <c r="F131">
-        <v>0.166</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3209,19 +3191,19 @@
         <v>49</v>
       </c>
       <c r="B132" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C132">
-        <v>875</v>
+        <v>745.1</v>
       </c>
       <c r="D132">
-        <v>4738.7</v>
+        <v>8664.4</v>
       </c>
       <c r="E132">
-        <v>0.214</v>
+        <v>-0.05</v>
       </c>
       <c r="F132">
-        <v>0.133</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3229,19 +3211,19 @@
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C133">
-        <v>830.5</v>
+        <v>836.4</v>
       </c>
       <c r="D133">
-        <v>4913</v>
+        <v>9106.299999999999</v>
       </c>
       <c r="E133">
-        <v>0.255</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="F133">
-        <v>0.205</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3249,19 +3231,16 @@
         <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C134">
-        <v>2305.8</v>
+        <v>72</v>
       </c>
       <c r="D134">
-        <v>16348</v>
+        <v>3330.5</v>
       </c>
       <c r="E134">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.179</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3269,19 +3248,16 @@
         <v>50</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
-      </c>
-      <c r="C135">
-        <v>849.5</v>
+        <v>73</v>
       </c>
       <c r="D135">
-        <v>5588.2</v>
+        <v>1321</v>
       </c>
       <c r="E135">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.138</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3289,19 +3265,16 @@
         <v>50</v>
       </c>
       <c r="B136" t="s">
-        <v>68</v>
-      </c>
-      <c r="C136">
-        <v>727.4</v>
+        <v>74</v>
       </c>
       <c r="D136">
-        <v>5641.4</v>
+        <v>1408</v>
       </c>
       <c r="E136">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.199</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3309,19 +3282,19 @@
         <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C137">
-        <v>1643.4</v>
+        <v>2930.7</v>
       </c>
       <c r="D137">
-        <v>17745</v>
+        <v>6260.1</v>
       </c>
       <c r="E137">
-        <v>0.059</v>
+        <v>0.132</v>
       </c>
       <c r="F137">
-        <v>0.165</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3329,19 +3302,19 @@
         <v>51</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C138">
-        <v>838.3</v>
+        <v>936.3</v>
       </c>
       <c r="D138">
-        <v>6297.3</v>
+        <v>2226.6</v>
       </c>
       <c r="E138">
-        <v>0.208</v>
+        <v>0.09</v>
       </c>
       <c r="F138">
-        <v>0.145</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3349,19 +3322,19 @@
         <v>51</v>
       </c>
       <c r="B139" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C139">
-        <v>917.1</v>
+        <v>907</v>
       </c>
       <c r="D139">
-        <v>6460.7</v>
+        <v>2295.3</v>
       </c>
       <c r="E139">
-        <v>0.409</v>
+        <v>0.188</v>
       </c>
       <c r="F139">
-        <v>0.236</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3369,19 +3342,19 @@
         <v>52</v>
       </c>
       <c r="B140" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C140">
-        <v>1611.4</v>
+        <v>2586.9</v>
       </c>
       <c r="D140">
-        <v>19366.2</v>
+        <v>8869.5</v>
       </c>
       <c r="E140">
-        <v>-0.09699999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="F140">
-        <v>0.137</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3389,19 +3362,19 @@
         <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C141">
-        <v>885.1</v>
+        <v>840.9</v>
       </c>
       <c r="D141">
-        <v>7182.4</v>
+        <v>3009.4</v>
       </c>
       <c r="E141">
-        <v>0.132</v>
+        <v>0.297</v>
       </c>
       <c r="F141">
-        <v>0.136</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3409,19 +3382,19 @@
         <v>52</v>
       </c>
       <c r="B142" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C142">
-        <v>1035</v>
+        <v>920.9</v>
       </c>
       <c r="D142">
-        <v>7495.7</v>
+        <v>3211.4</v>
       </c>
       <c r="E142">
-        <v>0.242</v>
+        <v>0.416</v>
       </c>
       <c r="F142">
-        <v>0.219</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3429,19 +3402,19 @@
         <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C143">
-        <v>1373</v>
+        <v>2606.3</v>
       </c>
       <c r="D143">
-        <v>20738.5</v>
+        <v>11425</v>
       </c>
       <c r="E143">
-        <v>-0.005</v>
+        <v>0.183</v>
       </c>
       <c r="F143">
-        <v>0.124</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3449,19 +3422,19 @@
         <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C144">
-        <v>827.2</v>
+        <v>850</v>
       </c>
       <c r="D144">
-        <v>7996.8</v>
+        <v>3857.9</v>
       </c>
       <c r="E144">
-        <v>0.203</v>
+        <v>0.284</v>
       </c>
       <c r="F144">
-        <v>0.141</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3469,19 +3442,19 @@
         <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C145">
-        <v>1005.7</v>
+        <v>870.5</v>
       </c>
       <c r="D145">
-        <v>8500.5</v>
+        <v>4082.5</v>
       </c>
       <c r="E145">
-        <v>0.145</v>
+        <v>0.294</v>
       </c>
       <c r="F145">
-        <v>0.207</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3489,19 +3462,19 @@
         <v>54</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C146">
-        <v>1595.7</v>
+        <v>2637.6</v>
       </c>
       <c r="D146">
-        <v>22334.1</v>
+        <v>14059.9</v>
       </c>
       <c r="E146">
-        <v>0.128</v>
+        <v>0.252</v>
       </c>
       <c r="F146">
-        <v>0.126</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3509,19 +3482,19 @@
         <v>54</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C147">
-        <v>828.6</v>
+        <v>875</v>
       </c>
       <c r="D147">
-        <v>8815.4</v>
+        <v>4738.7</v>
       </c>
       <c r="E147">
-        <v>0.204</v>
+        <v>0.214</v>
       </c>
       <c r="F147">
-        <v>0.145</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3529,19 +3502,19 @@
         <v>54</v>
       </c>
       <c r="B148" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C148">
-        <v>1025.3</v>
+        <v>830.5</v>
       </c>
       <c r="D148">
-        <v>9535.799999999999</v>
+        <v>4913</v>
       </c>
       <c r="E148">
-        <v>0.134</v>
+        <v>0.255</v>
       </c>
       <c r="F148">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3549,19 +3522,19 @@
         <v>55</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C149">
-        <v>2152.9</v>
+        <v>2305.8</v>
       </c>
       <c r="D149">
-        <v>24487</v>
+        <v>16348</v>
       </c>
       <c r="E149">
-        <v>0.269</v>
+        <v>0.29</v>
       </c>
       <c r="F149">
-        <v>0.135</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3569,19 +3542,19 @@
         <v>55</v>
       </c>
       <c r="B150" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C150">
-        <v>817.3</v>
+        <v>849.5</v>
       </c>
       <c r="D150">
-        <v>9632.299999999999</v>
+        <v>5588.2</v>
       </c>
       <c r="E150">
-        <v>0.146</v>
+        <v>0.153</v>
       </c>
       <c r="F150">
-        <v>0.145</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3589,19 +3562,19 @@
         <v>55</v>
       </c>
       <c r="B151" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C151">
-        <v>923.4</v>
+        <v>727.4</v>
       </c>
       <c r="D151">
-        <v>10458.3</v>
+        <v>5641.4</v>
       </c>
       <c r="E151">
-        <v>0.119</v>
+        <v>0.159</v>
       </c>
       <c r="F151">
-        <v>0.193</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3609,16 +3582,16 @@
         <v>56</v>
       </c>
       <c r="B152" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C152">
-        <v>3083.3</v>
+        <v>1643.4</v>
       </c>
       <c r="D152">
-        <v>6878</v>
+        <v>17745</v>
       </c>
       <c r="E152">
-        <v>0.132</v>
+        <v>0.059</v>
       </c>
       <c r="F152">
         <v>0.165</v>
@@ -3629,19 +3602,19 @@
         <v>56</v>
       </c>
       <c r="B153" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C153">
-        <v>993.4</v>
+        <v>838.3</v>
       </c>
       <c r="D153">
-        <v>2362.1</v>
+        <v>6297.3</v>
       </c>
       <c r="E153">
-        <v>0.132</v>
+        <v>0.208</v>
       </c>
       <c r="F153">
-        <v>0.128</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3649,19 +3622,19 @@
         <v>56</v>
       </c>
       <c r="B154" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C154">
-        <v>932.4</v>
+        <v>917.1</v>
       </c>
       <c r="D154">
-        <v>2559.9</v>
+        <v>6460.7</v>
       </c>
       <c r="E154">
-        <v>0.059</v>
+        <v>0.409</v>
       </c>
       <c r="F154">
-        <v>0.138</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3669,19 +3642,19 @@
         <v>57</v>
       </c>
       <c r="B155" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C155">
-        <v>3033.1</v>
+        <v>1611.4</v>
       </c>
       <c r="D155">
-        <v>9914</v>
+        <v>19366.2</v>
       </c>
       <c r="E155">
-        <v>0.2</v>
+        <v>-0.09699999999999999</v>
       </c>
       <c r="F155">
-        <v>0.176</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3689,19 +3662,19 @@
         <v>57</v>
       </c>
       <c r="B156" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C156">
-        <v>933.6</v>
+        <v>885.1</v>
       </c>
       <c r="D156">
-        <v>3285.9</v>
+        <v>7182.4</v>
       </c>
       <c r="E156">
-        <v>0.154</v>
+        <v>0.132</v>
       </c>
       <c r="F156">
-        <v>0.141</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3709,19 +3682,19 @@
         <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C157">
-        <v>944.3</v>
+        <v>1035</v>
       </c>
       <c r="D157">
-        <v>3546.2</v>
+        <v>7495.7</v>
       </c>
       <c r="E157">
-        <v>0.023</v>
+        <v>0.242</v>
       </c>
       <c r="F157">
-        <v>0.103</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3729,19 +3702,19 @@
         <v>58</v>
       </c>
       <c r="B158" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C158">
-        <v>2905</v>
+        <v>1373</v>
       </c>
       <c r="D158">
-        <v>12880.7</v>
+        <v>20738.5</v>
       </c>
       <c r="E158">
-        <v>0.129</v>
+        <v>-0.005</v>
       </c>
       <c r="F158">
-        <v>0.167</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3749,19 +3722,19 @@
         <v>58</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C159">
-        <v>893.2</v>
+        <v>827.2</v>
       </c>
       <c r="D159">
-        <v>4179.1</v>
+        <v>7996.8</v>
       </c>
       <c r="E159">
-        <v>0.052</v>
+        <v>0.203</v>
       </c>
       <c r="F159">
-        <v>0.121</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3769,19 +3742,19 @@
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C160">
-        <v>927.4</v>
+        <v>1005.7</v>
       </c>
       <c r="D160">
-        <v>4495.4</v>
+        <v>8500.5</v>
       </c>
       <c r="E160">
-        <v>0.042</v>
+        <v>0.145</v>
       </c>
       <c r="F160">
-        <v>0.094</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3789,19 +3762,19 @@
         <v>59</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C161">
-        <v>2805.3</v>
+        <v>1595.7</v>
       </c>
       <c r="D161">
-        <v>15705.6</v>
+        <v>22334.1</v>
       </c>
       <c r="E161">
-        <v>0.057</v>
+        <v>0.128</v>
       </c>
       <c r="F161">
-        <v>0.138</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3809,19 +3782,19 @@
         <v>59</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C162">
-        <v>871.8</v>
+        <v>828.6</v>
       </c>
       <c r="D162">
-        <v>5051</v>
+        <v>8815.4</v>
       </c>
       <c r="E162">
-        <v>0.001</v>
+        <v>0.204</v>
       </c>
       <c r="F162">
-        <v>0.09699999999999999</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3829,19 +3802,19 @@
         <v>59</v>
       </c>
       <c r="B163" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C163">
-        <v>815.7</v>
+        <v>1025.3</v>
       </c>
       <c r="D163">
-        <v>5311.6</v>
+        <v>9535.799999999999</v>
       </c>
       <c r="E163">
-        <v>-0.036</v>
+        <v>0.134</v>
       </c>
       <c r="F163">
-        <v>0.068</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3849,19 +3822,19 @@
         <v>60</v>
       </c>
       <c r="B164" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C164">
-        <v>2020.1</v>
+        <v>2152.9</v>
       </c>
       <c r="D164">
-        <v>17661.3</v>
+        <v>24487</v>
       </c>
       <c r="E164">
-        <v>-0.129</v>
+        <v>0.269</v>
       </c>
       <c r="F164">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3869,19 +3842,19 @@
         <v>60</v>
       </c>
       <c r="B165" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C165">
-        <v>830.4</v>
+        <v>817.3</v>
       </c>
       <c r="D165">
-        <v>5861</v>
+        <v>9632.299999999999</v>
       </c>
       <c r="E165">
-        <v>-0.03</v>
+        <v>0.146</v>
       </c>
       <c r="F165">
-        <v>0.073</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3889,19 +3862,19 @@
         <v>60</v>
       </c>
       <c r="B166" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C166">
-        <v>845.6</v>
+        <v>923.4</v>
       </c>
       <c r="D166">
-        <v>6142.9</v>
+        <v>10458.3</v>
       </c>
       <c r="E166">
-        <v>0.138</v>
+        <v>0.119</v>
       </c>
       <c r="F166">
-        <v>0.079</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3909,19 +3882,16 @@
         <v>61</v>
       </c>
       <c r="B167" t="s">
-        <v>66</v>
-      </c>
-      <c r="C167">
-        <v>1498</v>
+        <v>72</v>
       </c>
       <c r="D167">
-        <v>19139.1</v>
+        <v>3763.6</v>
       </c>
       <c r="E167">
-        <v>-0.094</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.078</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3929,19 +3899,16 @@
         <v>61</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
-      </c>
-      <c r="C168">
-        <v>897.7</v>
+        <v>73</v>
       </c>
       <c r="D168">
-        <v>6781.6</v>
+        <v>1374.4</v>
       </c>
       <c r="E168">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.073</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3949,19 +3916,16 @@
         <v>61</v>
       </c>
       <c r="B169" t="s">
-        <v>68</v>
-      </c>
-      <c r="C169">
-        <v>1011.2</v>
+        <v>74</v>
       </c>
       <c r="D169">
-        <v>7145.9</v>
+        <v>1622.5</v>
       </c>
       <c r="E169">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.07200000000000001</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3969,19 +3933,19 @@
         <v>62</v>
       </c>
       <c r="B170" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C170">
-        <v>1884.1</v>
+        <v>3083.3</v>
       </c>
       <c r="D170">
-        <v>21028.6</v>
+        <v>6878</v>
       </c>
       <c r="E170">
-        <v>0.107</v>
+        <v>0.132</v>
       </c>
       <c r="F170">
-        <v>0.08</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3989,19 +3953,19 @@
         <v>62</v>
       </c>
       <c r="B171" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C171">
-        <v>962.9</v>
+        <v>993.4</v>
       </c>
       <c r="D171">
-        <v>7742.1</v>
+        <v>2362.1</v>
       </c>
       <c r="E171">
-        <v>0.09</v>
+        <v>0.132</v>
       </c>
       <c r="F171">
-        <v>0.075</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4009,19 +3973,19 @@
         <v>62</v>
       </c>
       <c r="B172" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C172">
-        <v>1097</v>
+        <v>932.4</v>
       </c>
       <c r="D172">
-        <v>8242.700000000001</v>
+        <v>2559.9</v>
       </c>
       <c r="E172">
-        <v>0.031</v>
+        <v>0.059</v>
       </c>
       <c r="F172">
-        <v>0.067</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4029,19 +3993,19 @@
         <v>63</v>
       </c>
       <c r="B173" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C173">
-        <v>1620.2</v>
+        <v>3033.1</v>
       </c>
       <c r="D173">
-        <v>22480.9</v>
+        <v>9914</v>
       </c>
       <c r="E173">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="F173">
-        <v>0.08199999999999999</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4049,19 +4013,19 @@
         <v>63</v>
       </c>
       <c r="B174" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C174">
-        <v>897.1</v>
+        <v>933.6</v>
       </c>
       <c r="D174">
-        <v>8727.6</v>
+        <v>3285.9</v>
       </c>
       <c r="E174">
-        <v>0.068</v>
+        <v>0.154</v>
       </c>
       <c r="F174">
-        <v>0.08500000000000001</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4069,19 +4033,19 @@
         <v>63</v>
       </c>
       <c r="B175" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C175">
-        <v>1102.8</v>
+        <v>944.3</v>
       </c>
       <c r="D175">
-        <v>9345.5</v>
+        <v>3546.2</v>
       </c>
       <c r="E175">
-        <v>0.063</v>
+        <v>0.023</v>
       </c>
       <c r="F175">
-        <v>0.067</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4089,19 +4053,19 @@
         <v>64</v>
       </c>
       <c r="B176" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C176">
-        <v>1967.9</v>
+        <v>2905</v>
       </c>
       <c r="D176">
-        <v>24237.4</v>
+        <v>12880.7</v>
       </c>
       <c r="E176">
-        <v>0.27</v>
+        <v>0.129</v>
       </c>
       <c r="F176">
-        <v>0.094</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4109,19 +4073,19 @@
         <v>64</v>
       </c>
       <c r="B177" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C177">
-        <v>860.9</v>
+        <v>893.2</v>
       </c>
       <c r="D177">
-        <v>9588.5</v>
+        <v>4179.1</v>
       </c>
       <c r="E177">
-        <v>0.026</v>
+        <v>0.052</v>
       </c>
       <c r="F177">
-        <v>0.081</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4129,19 +4093,19 @@
         <v>64</v>
       </c>
       <c r="B178" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C178">
-        <v>1112.7</v>
+        <v>927.4</v>
       </c>
       <c r="D178">
-        <v>10458.2</v>
+        <v>4495.4</v>
       </c>
       <c r="E178">
         <v>0.042</v>
       </c>
       <c r="F178">
-        <v>0.063</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4149,19 +4113,19 @@
         <v>65</v>
       </c>
       <c r="B179" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C179">
-        <v>2369.5</v>
+        <v>2805.3</v>
       </c>
       <c r="D179">
-        <v>26598.4</v>
+        <v>15705.6</v>
       </c>
       <c r="E179">
-        <v>0.129</v>
+        <v>0.057</v>
       </c>
       <c r="F179">
-        <v>0.09699999999999999</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4169,19 +4133,19 @@
         <v>65</v>
       </c>
       <c r="B180" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C180">
-        <v>899.1</v>
+        <v>871.8</v>
       </c>
       <c r="D180">
-        <v>10395.7</v>
+        <v>5051</v>
       </c>
       <c r="E180">
-        <v>0.103</v>
+        <v>0.001</v>
       </c>
       <c r="F180">
-        <v>0.083</v>
+        <v>0.09699999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4189,18 +4153,378 @@
         <v>65</v>
       </c>
       <c r="B181" t="s">
+        <v>74</v>
+      </c>
+      <c r="C181">
+        <v>815.7</v>
+      </c>
+      <c r="D181">
+        <v>5311.6</v>
+      </c>
+      <c r="E181">
+        <v>-0.036</v>
+      </c>
+      <c r="F181">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" t="s">
+        <v>72</v>
+      </c>
+      <c r="C182">
+        <v>2020.1</v>
+      </c>
+      <c r="D182">
+        <v>17661.3</v>
+      </c>
+      <c r="E182">
+        <v>-0.129</v>
+      </c>
+      <c r="F182">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" t="s">
+        <v>73</v>
+      </c>
+      <c r="C183">
+        <v>830.4</v>
+      </c>
+      <c r="D183">
+        <v>5861</v>
+      </c>
+      <c r="E183">
+        <v>-0.03</v>
+      </c>
+      <c r="F183">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184">
+        <v>845.6</v>
+      </c>
+      <c r="D184">
+        <v>6142.9</v>
+      </c>
+      <c r="E184">
+        <v>0.138</v>
+      </c>
+      <c r="F184">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>67</v>
+      </c>
+      <c r="B185" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185">
+        <v>1498</v>
+      </c>
+      <c r="D185">
+        <v>19139.1</v>
+      </c>
+      <c r="E185">
+        <v>-0.094</v>
+      </c>
+      <c r="F185">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>67</v>
+      </c>
+      <c r="B186" t="s">
+        <v>73</v>
+      </c>
+      <c r="C186">
+        <v>897.7</v>
+      </c>
+      <c r="D186">
+        <v>6781.6</v>
+      </c>
+      <c r="E186">
+        <v>0.047</v>
+      </c>
+      <c r="F186">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>67</v>
+      </c>
+      <c r="B187" t="s">
+        <v>74</v>
+      </c>
+      <c r="C187">
+        <v>1011.2</v>
+      </c>
+      <c r="D187">
+        <v>7145.9</v>
+      </c>
+      <c r="E187">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F187">
+        <v>0.07200000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
         <v>68</v>
       </c>
-      <c r="C181">
+      <c r="B188" t="s">
+        <v>72</v>
+      </c>
+      <c r="C188">
+        <v>1884.1</v>
+      </c>
+      <c r="D188">
+        <v>21028.6</v>
+      </c>
+      <c r="E188">
+        <v>0.107</v>
+      </c>
+      <c r="F188">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>68</v>
+      </c>
+      <c r="B189" t="s">
+        <v>73</v>
+      </c>
+      <c r="C189">
+        <v>962.9</v>
+      </c>
+      <c r="D189">
+        <v>7742.1</v>
+      </c>
+      <c r="E189">
+        <v>0.09</v>
+      </c>
+      <c r="F189">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>68</v>
+      </c>
+      <c r="B190" t="s">
+        <v>74</v>
+      </c>
+      <c r="C190">
+        <v>1097</v>
+      </c>
+      <c r="D190">
+        <v>8242.700000000001</v>
+      </c>
+      <c r="E190">
+        <v>0.031</v>
+      </c>
+      <c r="F190">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>69</v>
+      </c>
+      <c r="B191" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191">
+        <v>1620.2</v>
+      </c>
+      <c r="D191">
+        <v>22480.9</v>
+      </c>
+      <c r="E191">
+        <v>0.14</v>
+      </c>
+      <c r="F191">
+        <v>0.08199999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>69</v>
+      </c>
+      <c r="B192" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192">
+        <v>897.1</v>
+      </c>
+      <c r="D192">
+        <v>8727.6</v>
+      </c>
+      <c r="E192">
+        <v>0.068</v>
+      </c>
+      <c r="F192">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>69</v>
+      </c>
+      <c r="B193" t="s">
+        <v>74</v>
+      </c>
+      <c r="C193">
+        <v>1102.8</v>
+      </c>
+      <c r="D193">
+        <v>9345.5</v>
+      </c>
+      <c r="E193">
+        <v>0.063</v>
+      </c>
+      <c r="F193">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>70</v>
+      </c>
+      <c r="B194" t="s">
+        <v>72</v>
+      </c>
+      <c r="C194">
+        <v>1967.9</v>
+      </c>
+      <c r="D194">
+        <v>24237.4</v>
+      </c>
+      <c r="E194">
+        <v>0.27</v>
+      </c>
+      <c r="F194">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>70</v>
+      </c>
+      <c r="B195" t="s">
+        <v>73</v>
+      </c>
+      <c r="C195">
+        <v>860.9</v>
+      </c>
+      <c r="D195">
+        <v>9588.5</v>
+      </c>
+      <c r="E195">
+        <v>0.026</v>
+      </c>
+      <c r="F195">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>70</v>
+      </c>
+      <c r="B196" t="s">
+        <v>74</v>
+      </c>
+      <c r="C196">
+        <v>1112.7</v>
+      </c>
+      <c r="D196">
+        <v>10458.2</v>
+      </c>
+      <c r="E196">
+        <v>0.042</v>
+      </c>
+      <c r="F196">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>71</v>
+      </c>
+      <c r="B197" t="s">
+        <v>72</v>
+      </c>
+      <c r="C197">
+        <v>2369.5</v>
+      </c>
+      <c r="D197">
+        <v>26598.4</v>
+      </c>
+      <c r="E197">
+        <v>0.129</v>
+      </c>
+      <c r="F197">
+        <v>0.09699999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>71</v>
+      </c>
+      <c r="B198" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198">
+        <v>899.1</v>
+      </c>
+      <c r="D198">
+        <v>10395.7</v>
+      </c>
+      <c r="E198">
+        <v>0.103</v>
+      </c>
+      <c r="F198">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" t="s">
+        <v>74</v>
+      </c>
+      <c r="C199">
         <v>1226.5</v>
       </c>
-      <c r="D181">
+      <c r="D199">
         <v>11736.5</v>
       </c>
-      <c r="E181">
+      <c r="E199">
         <v>0.279</v>
       </c>
-      <c r="F181">
+      <c r="F199">
         <v>0.08800000000000001</v>
       </c>
     </row>
